--- a/public/ChartSticker.xlsx
+++ b/public/ChartSticker.xlsx
@@ -4,17 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9024"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$562</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="1679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1680">
   <si>
     <t>Id</t>
   </si>
@@ -3521,6 +3537,9 @@
   </si>
   <si>
     <t>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-509_580x.jpg?v=1698645246 1x, Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-509_580x@2x.jpg?v=1698645246 2x</t>
+  </si>
+  <si>
+    <t>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qtyesofindustries_580x.jpg~~~~Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qhobbies_580x.jpg</t>
   </si>
   <si>
     <t>//clickere.in/cdn/shop/products/USE-508_580x.jpg?v=1698645108 1x, //clickere.in/cdn/shop/products/USE-508_580x@2x.jpg?v=1698645108 2x</t>
@@ -5056,21 +5075,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5554,28 +5566,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5584,129 +5599,126 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6025,11 +6037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G390" sqref="G390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -6062,7 +6074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" hidden="1" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6088,7 +6100,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qhobbies_580x.jpg</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" hidden="1" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -6112,7 +6124,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qoccupation_580x.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" hidden="1" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -6136,7 +6148,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qtyesofindustries_580x.jpg</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" hidden="1" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -6160,7 +6172,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qtyesofwork_580x.jpg</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" hidden="1" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -6184,7 +6196,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qsomeoccasion_580x.jpg</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" hidden="1" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -6208,7 +6220,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qbadhabits_580x.jpg</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" hidden="1" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -6232,7 +6244,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qourneeds_580x.jpg</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" hidden="1" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -6256,7 +6268,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QTechnician_580x.jpg</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" hidden="1" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -6280,7 +6292,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qgoodmanners_580x.jpg</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" hidden="1" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -6304,7 +6316,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qemotions_580x.jpg</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" hidden="1" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>37</v>
@@ -6328,7 +6340,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qhygieneactivities_580x.jpg</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" hidden="1" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
@@ -6352,7 +6364,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qprimaryandsecondaryactivities_580x.jpg</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" hidden="1" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>43</v>
@@ -6376,7 +6388,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qsaltpan_580x.jpg</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" hidden="1" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -6400,7 +6412,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qmuncipalservice_580x.jpg</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" hidden="1" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>49</v>
@@ -6424,7 +6436,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qintheclassroom_580x.jpg</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" hidden="1" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>52</v>
@@ -6448,7 +6460,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qfirstaidchart_580x.jpg</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" hidden="1" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>55</v>
@@ -6472,7 +6484,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qpublicwelfareservice_580x.jpg</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" hidden="1" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>58</v>
@@ -6496,7 +6508,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qchildlabour_580x.jpg</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" hidden="1" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>61</v>
@@ -6520,7 +6532,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qpersonalhygiene_580x.jpg</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" hidden="1" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>64</v>
@@ -6544,7 +6556,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qourbank_580x.jpg</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" hidden="1" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>67</v>
@@ -6568,7 +6580,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QAncienteducationalcentres_580x.jpg</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" hidden="1" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>70</v>
@@ -6592,7 +6604,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QRelations_580x.jpg</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" hidden="1" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>73</v>
@@ -6616,7 +6628,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QLibrary_580x.jpg</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" hidden="1" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>76</v>
@@ -6640,7 +6652,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QImportandexport_580x.jpg</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" hidden="1" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>79</v>
@@ -6664,7 +6676,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QEducationaldevelopeinindia_580x.jpg</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" hidden="1" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>82</v>
@@ -6688,7 +6700,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QThosewhoneedourhelp_580x.jpg</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" hidden="1" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>85</v>
@@ -6712,7 +6724,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QOurneighourhood_580x.jpg</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" hidden="1" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -6736,7 +6748,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QPhysicalandMentalLabour_580x.jpg</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" hidden="1" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>91</v>
@@ -6760,7 +6772,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QGoodtouch-Badtouch_580x.jpg</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
@@ -6784,7 +6796,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qfamilymembers_580x.jpg</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" hidden="1" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
@@ -6808,7 +6820,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qnesavutholilcopy_580x.jpg</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" hidden="1" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
@@ -6832,7 +6844,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qlabour_580x.jpg</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" hidden="1" spans="1:7">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
@@ -6856,7 +6868,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qfriendship_580x.jpg</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" hidden="1" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>106</v>
@@ -6880,7 +6892,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Qourfamily_580x.jpg</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" hidden="1" spans="1:7">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>109</v>
@@ -6904,7 +6916,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QImagetoPDF2023032810.22.50-page-001_580x.jpg</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" hidden="1" spans="1:7">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>112</v>
@@ -6928,7 +6940,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q867_580x.jpg</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" hidden="1" spans="1:7">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>115</v>
@@ -6952,7 +6964,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q866_580x.jpg</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" hidden="1" spans="1:7">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>118</v>
@@ -6976,7 +6988,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q865_580x.jpg</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" hidden="1" spans="1:7">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>121</v>
@@ -7000,7 +7012,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q864_714f315a-2486-4e8a-aeb5-f0159593dfe2_580x.jpg</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" hidden="1" spans="1:7">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>124</v>
@@ -7024,7 +7036,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q864_580x.jpg</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" hidden="1" spans="1:7">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>127</v>
@@ -7048,7 +7060,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q863_580x.jpg</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" hidden="1" spans="1:7">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>130</v>
@@ -7072,7 +7084,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q862_580x.jpg</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" hidden="1" spans="1:7">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>133</v>
@@ -7096,7 +7108,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q861_580x.jpg</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" hidden="1" spans="1:7">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>136</v>
@@ -7120,7 +7132,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q860_580x.jpg</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" hidden="1" spans="1:7">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>139</v>
@@ -7144,7 +7156,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q859_580x.jpg</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" hidden="1" spans="1:7">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>142</v>
@@ -7168,7 +7180,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q858_580x.jpg</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" hidden="1" spans="1:7">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>145</v>
@@ -7192,7 +7204,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q857_580x.jpg</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" hidden="1" spans="1:7">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>148</v>
@@ -7216,7 +7228,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q856_580x.jpg</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" hidden="1" spans="1:7">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>151</v>
@@ -7240,7 +7252,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q855_580x.jpg</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" hidden="1" spans="1:7">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>154</v>
@@ -7264,7 +7276,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q854_580x.jpg</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" hidden="1" spans="1:7">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>157</v>
@@ -7288,7 +7300,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q853_580x.jpg</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" hidden="1" spans="1:7">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>160</v>
@@ -7312,7 +7324,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q852_580x.jpg</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" hidden="1" spans="1:7">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>163</v>
@@ -7336,7 +7348,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q851_580x.jpg</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" hidden="1" spans="1:7">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>166</v>
@@ -7360,7 +7372,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q848_580x.jpg</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" hidden="1" spans="1:7">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
@@ -7384,7 +7396,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q849_580x.jpg</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" hidden="1" spans="1:7">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
@@ -7408,7 +7420,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q847_580x.jpg</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" hidden="1" spans="1:7">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
@@ -7432,7 +7444,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q846_580x.jpg</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" hidden="1" spans="1:7">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
@@ -7456,7 +7468,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q845_580x.jpg</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" hidden="1" spans="1:7">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
@@ -7480,7 +7492,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q844_580x.jpg</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" hidden="1" spans="1:7">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
         <v>183</v>
@@ -7504,7 +7516,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q843_580x.jpg</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" hidden="1" spans="1:7">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>186</v>
@@ -7528,7 +7540,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q842_580x.jpg</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" hidden="1" spans="1:7">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
         <v>189</v>
@@ -7552,7 +7564,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q841_580x.jpg</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" hidden="1" spans="1:7">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>192</v>
@@ -7576,7 +7588,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q840_580x.jpg</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" hidden="1" spans="1:7">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>195</v>
@@ -7600,7 +7612,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q839_580x.jpg</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" hidden="1" spans="1:7">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
         <v>198</v>
@@ -7624,7 +7636,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q837_580x.jpg</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" hidden="1" spans="1:7">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>201</v>
@@ -7648,7 +7660,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q838_1332d25c-e5bf-4bee-a35b-fcaf8ca05280_580x.jpg</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" hidden="1" spans="1:7">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
         <v>204</v>
@@ -7672,7 +7684,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q836_580x.jpg</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" hidden="1" spans="1:7">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>207</v>
@@ -7696,7 +7708,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q833_580x.jpg</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" hidden="1" spans="1:7">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>210</v>
@@ -7720,7 +7732,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q832_580x.jpg</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" hidden="1" spans="1:7">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
         <v>212</v>
@@ -7744,7 +7756,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q831_580x.jpg</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" hidden="1" spans="1:7">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>215</v>
@@ -7768,7 +7780,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q830_580x.jpg</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" hidden="1" spans="1:7">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>218</v>
@@ -7792,7 +7804,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q829_580x.jpg</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" hidden="1" spans="1:7">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
         <v>221</v>
@@ -7816,7 +7828,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q828_580x.jpg</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" hidden="1" spans="1:7">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>224</v>
@@ -7840,7 +7852,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q827_580x.jpg</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" hidden="1" spans="1:7">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>227</v>
@@ -7864,7 +7876,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q826_580x.jpg</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" hidden="1" spans="1:7">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>230</v>
@@ -7888,7 +7900,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Qsnapedit_1690455311838_580x.jpg</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" hidden="1" spans="1:7">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
         <v>233</v>
@@ -7912,7 +7924,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q824_580x.jpg</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" hidden="1" spans="1:7">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
         <v>236</v>
@@ -7936,7 +7948,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q823_580x.jpg</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" hidden="1" spans="1:7">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>239</v>
@@ -7960,7 +7972,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q822_580x.jpg</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" hidden="1" spans="1:7">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>242</v>
@@ -7984,7 +7996,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q821_580x.jpg</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" hidden="1" spans="1:7">
       <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
         <v>245</v>
@@ -8008,7 +8020,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q820_580x.jpg</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" hidden="1" spans="1:7">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>248</v>
@@ -8032,7 +8044,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q819_580x.jpg</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" hidden="1" spans="1:7">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
         <v>251</v>
@@ -8056,7 +8068,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q818_580x.jpg</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" hidden="1" spans="1:7">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>254</v>
@@ -8080,7 +8092,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q817_580x.jpg</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" hidden="1" spans="1:7">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>257</v>
@@ -8104,7 +8116,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q816_580x.jpg</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" hidden="1" spans="1:7">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
         <v>260</v>
@@ -8128,7 +8140,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q834_580x.jpg</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" hidden="1" spans="1:7">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>263</v>
@@ -8152,7 +8164,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Qsnapedit_1690434341131_580x.jpg</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" hidden="1" spans="1:7">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>266</v>
@@ -8176,7 +8188,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q835_580x.jpg</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" hidden="1" spans="1:7">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>269</v>
@@ -8200,7 +8212,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q814_580x.jpg</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" hidden="1" spans="1:7">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>272</v>
@@ -8224,7 +8236,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q813_580x.jpg</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" hidden="1" spans="1:7">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>275</v>
@@ -8248,7 +8260,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q812_580x.jpg</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" hidden="1" spans="1:7">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
         <v>278</v>
@@ -8272,7 +8284,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q811_580x.jpg</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" hidden="1" spans="1:7">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
         <v>281</v>
@@ -8296,7 +8308,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q810_580x.jpg</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" hidden="1" spans="1:7">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
         <v>284</v>
@@ -8320,7 +8332,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q809_580x.jpg</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" hidden="1" spans="1:7">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
         <v>287</v>
@@ -8344,7 +8356,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q808_580x.jpg</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" hidden="1" spans="1:7">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>290</v>
@@ -8368,7 +8380,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q805_580x.jpg</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" hidden="1" spans="1:7">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>293</v>
@@ -8392,7 +8404,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q804_580x.jpg</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" hidden="1" spans="1:7">
       <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
         <v>296</v>
@@ -8416,7 +8428,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q803_580x.jpg</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" hidden="1" spans="1:7">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>299</v>
@@ -8440,7 +8452,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q802_580x.jpg</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" hidden="1" spans="1:7">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
         <v>302</v>
@@ -8464,7 +8476,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q801_580x.jpg</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" hidden="1" spans="1:7">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
         <v>305</v>
@@ -8488,7 +8500,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q799_580x.jpg</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" hidden="1" spans="1:7">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>308</v>
@@ -8512,7 +8524,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q798_580x.jpg</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" hidden="1" spans="1:7">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>311</v>
@@ -8536,7 +8548,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q797_580x.jpg</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" hidden="1" spans="1:7">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
         <v>314</v>
@@ -8560,7 +8572,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_19_580x.jpg</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" hidden="1" spans="1:7">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
         <v>317</v>
@@ -8584,7 +8596,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-17at2.11.39PM_1_580x.jpg</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" hidden="1" spans="1:7">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>320</v>
@@ -8608,7 +8620,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_17_580x.jpg</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" hidden="1" spans="1:7">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>323</v>
@@ -8632,7 +8644,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_16_580x.jpg</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" hidden="1" spans="1:7">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
         <v>326</v>
@@ -8656,7 +8668,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_15_580x.jpg</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" hidden="1" spans="1:7">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>329</v>
@@ -8680,7 +8692,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_12_580x.jpg</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" hidden="1" spans="1:7">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>332</v>
@@ -8704,7 +8716,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_11_580x.jpg</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" hidden="1" spans="1:7">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>335</v>
@@ -8728,7 +8740,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_10_580x.jpg</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" hidden="1" spans="1:7">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>338</v>
@@ -8752,7 +8764,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_9_580x.jpg</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" hidden="1" spans="1:7">
       <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
         <v>341</v>
@@ -8776,7 +8788,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_8_580x.jpg</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" hidden="1" spans="1:7">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>344</v>
@@ -8800,7 +8812,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_7_580x.jpg</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" hidden="1" spans="1:7">
       <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
         <v>347</v>
@@ -8824,7 +8836,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q785_580x.jpg</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" hidden="1" spans="1:7">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>350</v>
@@ -8848,7 +8860,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_5_580x.jpg</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" hidden="1" spans="1:7">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
         <v>353</v>
@@ -8872,7 +8884,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-12-16at2.55.49PM_4_580x.jpg</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" hidden="1" spans="1:7">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>356</v>
@@ -8896,7 +8908,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q782_580x.jpg</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" hidden="1" spans="1:7">
       <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
         <v>359</v>
@@ -8920,7 +8932,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q781_580x.jpg</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" hidden="1" spans="1:7">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
         <v>362</v>
@@ -8944,7 +8956,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q780_580x.jpg</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" hidden="1" spans="1:7">
       <c r="A122" s="2"/>
       <c r="B122" s="1" t="s">
         <v>365</v>
@@ -8968,7 +8980,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q779_580x.jpg</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" hidden="1" spans="1:7">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
         <v>368</v>
@@ -8992,7 +9004,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q778_580x.jpg</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" hidden="1" spans="1:7">
       <c r="A124" s="2"/>
       <c r="B124" s="1" t="s">
         <v>371</v>
@@ -9016,7 +9028,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q777_580x.jpg</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" hidden="1" spans="1:7">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>374</v>
@@ -9040,7 +9052,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q776_580x.jpg</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" hidden="1" spans="1:7">
       <c r="A126" s="2"/>
       <c r="B126" s="1" t="s">
         <v>377</v>
@@ -9064,7 +9076,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q775_580x.jpg</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" hidden="1" spans="1:7">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
         <v>380</v>
@@ -9088,7 +9100,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q774_580x.jpg</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" hidden="1" spans="1:7">
       <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
         <v>383</v>
@@ -9112,7 +9124,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q773_580x.jpg</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" hidden="1" spans="1:7">
       <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
         <v>386</v>
@@ -9136,7 +9148,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q772_580x.jpg</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" hidden="1" spans="1:7">
       <c r="A130" s="2"/>
       <c r="B130" s="1" t="s">
         <v>389</v>
@@ -9160,7 +9172,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q771_580x.jpg</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" hidden="1" spans="1:7">
       <c r="A131" s="2"/>
       <c r="B131" s="1" t="s">
         <v>392</v>
@@ -9184,7 +9196,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q769_580x.jpg</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" hidden="1" spans="1:7">
       <c r="A132" s="2"/>
       <c r="B132" s="1" t="s">
         <v>395</v>
@@ -9208,7 +9220,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q768_580x.jpg</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" hidden="1" spans="1:7">
       <c r="A133" s="2"/>
       <c r="B133" s="1" t="s">
         <v>398</v>
@@ -9232,7 +9244,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q767_580x.jpg</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" hidden="1" spans="1:7">
       <c r="A134" s="2"/>
       <c r="B134" s="1" t="s">
         <v>401</v>
@@ -9256,7 +9268,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q766_580x.jpg</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" hidden="1" spans="1:7">
       <c r="A135" s="2"/>
       <c r="B135" s="1" t="s">
         <v>404</v>
@@ -9280,7 +9292,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q765_580x.jpg</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" hidden="1" spans="1:7">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
         <v>407</v>
@@ -9304,7 +9316,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q764_580x.jpg</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" hidden="1" spans="1:7">
       <c r="A137" s="2"/>
       <c r="B137" s="1" t="s">
         <v>410</v>
@@ -9328,7 +9340,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q763_580x.jpg</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" hidden="1" spans="1:7">
       <c r="A138" s="2"/>
       <c r="B138" s="1" t="s">
         <v>413</v>
@@ -9352,7 +9364,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q762_580x.jpg</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" hidden="1" spans="1:7">
       <c r="A139" s="2"/>
       <c r="B139" s="1" t="s">
         <v>416</v>
@@ -9376,7 +9388,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q761_580x.jpg</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" hidden="1" spans="1:7">
       <c r="A140" s="2"/>
       <c r="B140" s="1" t="s">
         <v>418</v>
@@ -9400,7 +9412,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q760_580x.jpg</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" hidden="1" spans="1:7">
       <c r="A141" s="2"/>
       <c r="B141" s="1" t="s">
         <v>421</v>
@@ -9424,7 +9436,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q759_580x.jpg</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" hidden="1" spans="1:7">
       <c r="A142" s="2"/>
       <c r="B142" s="1" t="s">
         <v>424</v>
@@ -9448,7 +9460,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q758_580x.jpg</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" hidden="1" spans="1:7">
       <c r="A143" s="2"/>
       <c r="B143" s="1" t="s">
         <v>427</v>
@@ -9472,7 +9484,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q757_580x.jpg</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" hidden="1" spans="1:7">
       <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
         <v>430</v>
@@ -9496,7 +9508,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q756_580x.jpg</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" hidden="1" spans="1:7">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
         <v>433</v>
@@ -9520,7 +9532,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q755_580x.jpg</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" hidden="1" spans="1:7">
       <c r="A146" s="2"/>
       <c r="B146" s="1" t="s">
         <v>436</v>
@@ -9544,7 +9556,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q754_580x.jpg</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" hidden="1" spans="1:7">
       <c r="A147" s="2"/>
       <c r="B147" s="1" t="s">
         <v>439</v>
@@ -9568,7 +9580,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q753_580x.jpg</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" hidden="1" spans="1:7">
       <c r="A148" s="2"/>
       <c r="B148" s="1" t="s">
         <v>442</v>
@@ -9592,7 +9604,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q752_580x.jpg</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" hidden="1" spans="1:7">
       <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
         <v>445</v>
@@ -9616,7 +9628,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q751_580x.jpg</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" hidden="1" spans="1:7">
       <c r="A150" s="2"/>
       <c r="B150" s="1" t="s">
         <v>448</v>
@@ -9640,7 +9652,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q750_580x.jpg</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" hidden="1" spans="1:7">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
         <v>451</v>
@@ -9664,7 +9676,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q749_580x.jpg</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" hidden="1" spans="1:7">
       <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
         <v>454</v>
@@ -9688,7 +9700,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q748_580x.jpg</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" hidden="1" spans="1:7">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
         <v>457</v>
@@ -9712,7 +9724,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q747_580x.jpg</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" hidden="1" spans="1:7">
       <c r="A154" s="2"/>
       <c r="B154" s="1" t="s">
         <v>460</v>
@@ -9736,7 +9748,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q746_580x.jpg</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" hidden="1" spans="1:7">
       <c r="A155" s="2"/>
       <c r="B155" s="1" t="s">
         <v>463</v>
@@ -9760,7 +9772,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q745_580x.jpg</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" hidden="1" spans="1:7">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
         <v>466</v>
@@ -9784,7 +9796,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q743_9a905178-522a-4817-8273-3d5db2ff89c5_580x.jpg</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" hidden="1" spans="1:7">
       <c r="A157" s="2"/>
       <c r="B157" s="1" t="s">
         <v>469</v>
@@ -9808,7 +9820,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q738_580x.jpg</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" hidden="1" spans="1:7">
       <c r="A158" s="2"/>
       <c r="B158" s="1" t="s">
         <v>472</v>
@@ -9832,7 +9844,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q743_580x.jpg</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" hidden="1" spans="1:7">
       <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
         <v>475</v>
@@ -9856,7 +9868,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q742_580x.jpg</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" hidden="1" spans="1:7">
       <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
         <v>478</v>
@@ -9880,7 +9892,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q741_580x.jpg</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" hidden="1" spans="1:7">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
         <v>481</v>
@@ -9904,7 +9916,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q740_580x.jpg</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" hidden="1" spans="1:7">
       <c r="A162" s="2"/>
       <c r="B162" s="1" t="s">
         <v>484</v>
@@ -9928,7 +9940,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q739_580x.jpg</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" hidden="1" spans="1:7">
       <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
         <v>487</v>
@@ -9952,7 +9964,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q737__2_-transformed_580x.jpg</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" hidden="1" spans="1:7">
       <c r="A164" s="2"/>
       <c r="B164" s="1" t="s">
         <v>490</v>
@@ -9976,7 +9988,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q736_580x.jpg</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" hidden="1" spans="1:7">
       <c r="A165" s="2"/>
       <c r="B165" s="1" t="s">
         <v>493</v>
@@ -10000,7 +10012,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q735_580x.jpg</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" hidden="1" spans="1:7">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
         <v>496</v>
@@ -10024,7 +10036,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q734_580x.jpg</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" hidden="1" spans="1:7">
       <c r="A167" s="2"/>
       <c r="B167" s="1" t="s">
         <v>499</v>
@@ -10048,7 +10060,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q733_580x.jpg</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" hidden="1" spans="1:7">
       <c r="A168" s="2"/>
       <c r="B168" s="1" t="s">
         <v>502</v>
@@ -10072,7 +10084,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q732_580x.jpg</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" hidden="1" spans="1:7">
       <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
         <v>505</v>
@@ -10096,7 +10108,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q731_580x.jpg</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" hidden="1" spans="1:7">
       <c r="A170" s="2"/>
       <c r="B170" s="1" t="s">
         <v>508</v>
@@ -10120,7 +10132,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q730_580x.jpg</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" hidden="1" spans="1:7">
       <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
         <v>511</v>
@@ -10144,7 +10156,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q729_580x.jpg</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" hidden="1" spans="1:7">
       <c r="A172" s="2"/>
       <c r="B172" s="1" t="s">
         <v>514</v>
@@ -10168,7 +10180,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q728_580x.jpg</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" hidden="1" spans="1:7">
       <c r="A173" s="2"/>
       <c r="B173" s="1" t="s">
         <v>517</v>
@@ -10192,7 +10204,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q727_580x.jpg</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" hidden="1" spans="1:7">
       <c r="A174" s="2"/>
       <c r="B174" s="1" t="s">
         <v>520</v>
@@ -10216,7 +10228,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q726_580x.jpg</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" hidden="1" spans="1:7">
       <c r="A175" s="2"/>
       <c r="B175" s="1" t="s">
         <v>523</v>
@@ -10240,7 +10252,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q725_580x.jpg</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" hidden="1" spans="1:7">
       <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
         <v>526</v>
@@ -10264,7 +10276,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q724_580x.jpg</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" hidden="1" spans="1:7">
       <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
         <v>529</v>
@@ -10288,7 +10300,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q723_580x.jpg</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" hidden="1" spans="1:7">
       <c r="A178" s="2"/>
       <c r="B178" s="1" t="s">
         <v>532</v>
@@ -10312,7 +10324,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q722_580x.jpg</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" hidden="1" spans="1:7">
       <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
         <v>535</v>
@@ -10336,7 +10348,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q721_580x.jpg</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" hidden="1" spans="1:7">
       <c r="A180" s="2"/>
       <c r="B180" s="1" t="s">
         <v>538</v>
@@ -10360,7 +10372,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q720_580x.jpg</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" hidden="1" spans="1:7">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
         <v>541</v>
@@ -10384,7 +10396,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q719_580x.jpg</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" hidden="1" spans="1:7">
       <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
         <v>544</v>
@@ -10408,7 +10420,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q718_580x.jpg</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" hidden="1" spans="1:7">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
         <v>547</v>
@@ -10432,7 +10444,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q717_580x.jpg</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" hidden="1" spans="1:7">
       <c r="A184" s="2"/>
       <c r="B184" s="1" t="s">
         <v>550</v>
@@ -10456,7 +10468,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q716_580x.jpg</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" hidden="1" spans="1:7">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
         <v>553</v>
@@ -10480,7 +10492,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q715_580x.jpg</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" hidden="1" spans="1:7">
       <c r="A186" s="2"/>
       <c r="B186" s="1" t="s">
         <v>556</v>
@@ -10504,7 +10516,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q714_580x.jpg</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" hidden="1" spans="1:7">
       <c r="A187" s="2"/>
       <c r="B187" s="1" t="s">
         <v>559</v>
@@ -10528,7 +10540,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q713_580x.jpg</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" hidden="1" spans="1:7">
       <c r="A188" s="2"/>
       <c r="B188" s="1" t="s">
         <v>562</v>
@@ -10552,7 +10564,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q712_580x.jpg</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" hidden="1" spans="1:7">
       <c r="A189" s="2"/>
       <c r="B189" s="1" t="s">
         <v>565</v>
@@ -10576,7 +10588,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q711_580x.jpg</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" hidden="1" spans="1:7">
       <c r="A190" s="2"/>
       <c r="B190" s="1" t="s">
         <v>568</v>
@@ -10600,7 +10612,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q710_580x.jpg</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" hidden="1" spans="1:7">
       <c r="A191" s="2"/>
       <c r="B191" s="1" t="s">
         <v>571</v>
@@ -10624,7 +10636,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q709_580x.jpg</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" hidden="1" spans="1:7">
       <c r="A192" s="2"/>
       <c r="B192" s="1" t="s">
         <v>574</v>
@@ -10648,7 +10660,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q708_580x.jpg</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" hidden="1" spans="1:7">
       <c r="A193" s="2"/>
       <c r="B193" s="1" t="s">
         <v>577</v>
@@ -10672,7 +10684,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q707_580x.jpg</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" hidden="1" spans="1:7">
       <c r="A194" s="2"/>
       <c r="B194" s="1" t="s">
         <v>580</v>
@@ -10696,7 +10708,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q706_580x.jpg</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" hidden="1" spans="1:7">
       <c r="A195" s="2"/>
       <c r="B195" s="1" t="s">
         <v>583</v>
@@ -10720,7 +10732,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q705_580x.jpg</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" hidden="1" spans="1:7">
       <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
         <v>586</v>
@@ -10744,7 +10756,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q704_580x.jpg</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" hidden="1" spans="1:7">
       <c r="A197" s="2"/>
       <c r="B197" s="1" t="s">
         <v>589</v>
@@ -10768,7 +10780,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q703_580x.jpg</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" hidden="1" spans="1:7">
       <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
         <v>592</v>
@@ -10792,7 +10804,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q702_580x.jpg</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" hidden="1" spans="1:7">
       <c r="A199" s="2"/>
       <c r="B199" s="1" t="s">
         <v>595</v>
@@ -10816,7 +10828,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q701_580x.jpg</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" hidden="1" spans="1:7">
       <c r="A200" s="2"/>
       <c r="B200" s="1" t="s">
         <v>598</v>
@@ -10840,7 +10852,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q700_580x.jpg</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" hidden="1" spans="1:7">
       <c r="A201" s="2"/>
       <c r="B201" s="1" t="s">
         <v>601</v>
@@ -10864,7 +10876,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q699_580x.jpg</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" hidden="1" spans="1:7">
       <c r="A202" s="2"/>
       <c r="B202" s="1" t="s">
         <v>604</v>
@@ -10888,7 +10900,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q698_580x.jpg</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" hidden="1" spans="1:7">
       <c r="A203" s="2"/>
       <c r="B203" s="1" t="s">
         <v>607</v>
@@ -10912,7 +10924,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q697_580x.jpg</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" hidden="1" spans="1:7">
       <c r="A204" s="2"/>
       <c r="B204" s="1" t="s">
         <v>610</v>
@@ -10936,7 +10948,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q696_580x.jpg</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" hidden="1" spans="1:7">
       <c r="A205" s="2"/>
       <c r="B205" s="1" t="s">
         <v>613</v>
@@ -10960,7 +10972,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q695_580x.jpg</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" hidden="1" spans="1:7">
       <c r="A206" s="2"/>
       <c r="B206" s="1" t="s">
         <v>616</v>
@@ -10984,7 +10996,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q694_580x.jpg</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" hidden="1" spans="1:7">
       <c r="A207" s="2"/>
       <c r="B207" s="1" t="s">
         <v>619</v>
@@ -11008,7 +11020,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q693_580x.jpg</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" hidden="1" spans="1:7">
       <c r="A208" s="2"/>
       <c r="B208" s="1" t="s">
         <v>622</v>
@@ -11032,7 +11044,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q692_580x.jpg</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" hidden="1" spans="1:7">
       <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
         <v>625</v>
@@ -11056,7 +11068,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q691_580x.jpg</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" hidden="1" spans="1:7">
       <c r="A210" s="2"/>
       <c r="B210" s="1" t="s">
         <v>628</v>
@@ -11080,7 +11092,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q690_580x.jpg</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" hidden="1" spans="1:7">
       <c r="A211" s="2"/>
       <c r="B211" s="1" t="s">
         <v>631</v>
@@ -11104,7 +11116,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q689_580x.jpg</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" hidden="1" spans="1:7">
       <c r="A212" s="2"/>
       <c r="B212" s="1" t="s">
         <v>634</v>
@@ -11128,7 +11140,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q688_580x.jpg</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" hidden="1" spans="1:7">
       <c r="A213" s="2"/>
       <c r="B213" s="1" t="s">
         <v>637</v>
@@ -11152,7 +11164,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q687_580x.jpg</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" hidden="1" spans="1:7">
       <c r="A214" s="2"/>
       <c r="B214" s="1" t="s">
         <v>640</v>
@@ -11176,7 +11188,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q686_580x.jpg</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" hidden="1" spans="1:7">
       <c r="A215" s="2"/>
       <c r="B215" s="1" t="s">
         <v>643</v>
@@ -11200,7 +11212,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q685_580x.jpg</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" hidden="1" spans="1:7">
       <c r="A216" s="2"/>
       <c r="B216" s="1" t="s">
         <v>646</v>
@@ -11224,7 +11236,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q684_580x.jpg</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" hidden="1" spans="1:7">
       <c r="A217" s="2"/>
       <c r="B217" s="1" t="s">
         <v>649</v>
@@ -11248,7 +11260,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q683_580x.jpg</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" hidden="1" spans="1:7">
       <c r="A218" s="2"/>
       <c r="B218" s="1" t="s">
         <v>652</v>
@@ -11272,7 +11284,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q682_580x.jpg</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" hidden="1" spans="1:7">
       <c r="A219" s="2"/>
       <c r="B219" s="1" t="s">
         <v>655</v>
@@ -11296,7 +11308,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q681_580x.jpg</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" hidden="1" spans="1:7">
       <c r="A220" s="2"/>
       <c r="B220" s="1" t="s">
         <v>658</v>
@@ -11320,7 +11332,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q680_580x.jpg</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" hidden="1" spans="1:7">
       <c r="A221" s="2"/>
       <c r="B221" s="1" t="s">
         <v>661</v>
@@ -11344,7 +11356,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q679_580x.jpg</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" hidden="1" spans="1:7">
       <c r="A222" s="2"/>
       <c r="B222" s="1" t="s">
         <v>664</v>
@@ -11368,7 +11380,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q678_580x.jpg</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" hidden="1" spans="1:7">
       <c r="A223" s="2"/>
       <c r="B223" s="1" t="s">
         <v>667</v>
@@ -11392,7 +11404,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q677_580x.jpg</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" hidden="1" spans="1:7">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
         <v>670</v>
@@ -11416,7 +11428,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q676_580x.jpg</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" hidden="1" spans="1:7">
       <c r="A225" s="2"/>
       <c r="B225" s="1" t="s">
         <v>673</v>
@@ -11440,7 +11452,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q675_580x.jpg</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" hidden="1" spans="1:7">
       <c r="A226" s="2"/>
       <c r="B226" s="1" t="s">
         <v>676</v>
@@ -11464,7 +11476,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q674_580x.jpg</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" hidden="1" spans="1:7">
       <c r="A227" s="2"/>
       <c r="B227" s="1" t="s">
         <v>679</v>
@@ -11488,7 +11500,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q673_580x.jpg</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" hidden="1" spans="1:7">
       <c r="A228" s="2"/>
       <c r="B228" s="1" t="s">
         <v>682</v>
@@ -11512,7 +11524,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q672_580x.jpg</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" hidden="1" spans="1:7">
       <c r="A229" s="2"/>
       <c r="B229" s="1" t="s">
         <v>685</v>
@@ -11536,7 +11548,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q671_580x.jpg</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" hidden="1" spans="1:7">
       <c r="A230" s="2"/>
       <c r="B230" s="1" t="s">
         <v>688</v>
@@ -11560,7 +11572,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q670_580x.jpg</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" hidden="1" spans="1:7">
       <c r="A231" s="2"/>
       <c r="B231" s="1" t="s">
         <v>691</v>
@@ -11584,7 +11596,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q669_580x.jpg</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" hidden="1" spans="1:7">
       <c r="A232" s="2"/>
       <c r="B232" s="1" t="s">
         <v>694</v>
@@ -11608,7 +11620,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q668_580x.jpg</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" hidden="1" spans="1:7">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
         <v>697</v>
@@ -11632,7 +11644,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q667_580x.jpg</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" hidden="1" spans="1:7">
       <c r="A234" s="2"/>
       <c r="B234" s="1" t="s">
         <v>700</v>
@@ -11656,7 +11668,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q666_580x.jpg</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" hidden="1" spans="1:7">
       <c r="A235" s="2"/>
       <c r="B235" s="1" t="s">
         <v>703</v>
@@ -11680,7 +11692,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q665_580x.jpg</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" hidden="1" spans="1:7">
       <c r="A236" s="2"/>
       <c r="B236" s="1" t="s">
         <v>706</v>
@@ -11704,7 +11716,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q664_580x.jpg</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" hidden="1" spans="1:7">
       <c r="A237" s="2"/>
       <c r="B237" s="1" t="s">
         <v>709</v>
@@ -11728,7 +11740,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q663_580x.jpg</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" hidden="1" spans="1:7">
       <c r="A238" s="2"/>
       <c r="B238" s="1" t="s">
         <v>712</v>
@@ -11752,7 +11764,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q662_580x.jpg</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" hidden="1" spans="1:7">
       <c r="A239" s="2"/>
       <c r="B239" s="1" t="s">
         <v>715</v>
@@ -11776,7 +11788,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q661_580x.jpg</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" hidden="1" spans="1:7">
       <c r="A240" s="2"/>
       <c r="B240" s="1" t="s">
         <v>718</v>
@@ -11800,7 +11812,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q660_580x.jpg</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" hidden="1" spans="1:7">
       <c r="A241" s="2"/>
       <c r="B241" s="1" t="s">
         <v>721</v>
@@ -11824,7 +11836,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q659_580x.jpg</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" hidden="1" spans="1:7">
       <c r="A242" s="2"/>
       <c r="B242" s="1" t="s">
         <v>724</v>
@@ -11848,7 +11860,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q658_580x.jpg</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" hidden="1" spans="1:7">
       <c r="A243" s="2"/>
       <c r="B243" s="1" t="s">
         <v>727</v>
@@ -11872,7 +11884,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q657_580x.jpg</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" hidden="1" spans="1:7">
       <c r="A244" s="2"/>
       <c r="B244" s="1" t="s">
         <v>730</v>
@@ -11896,7 +11908,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q656_580x.jpg</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" hidden="1" spans="1:7">
       <c r="A245" s="2"/>
       <c r="B245" s="1" t="s">
         <v>733</v>
@@ -11920,7 +11932,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q655_580x.jpg</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" hidden="1" spans="1:7">
       <c r="A246" s="2"/>
       <c r="B246" s="1" t="s">
         <v>736</v>
@@ -11944,7 +11956,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q654_580x.jpg</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" hidden="1" spans="1:7">
       <c r="A247" s="2"/>
       <c r="B247" s="1" t="s">
         <v>739</v>
@@ -11968,7 +11980,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q653_580x.jpg</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" hidden="1" spans="1:7">
       <c r="A248" s="2"/>
       <c r="B248" s="1" t="s">
         <v>742</v>
@@ -11992,7 +12004,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q652_580x.jpg</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" hidden="1" spans="1:7">
       <c r="A249" s="2"/>
       <c r="B249" s="1" t="s">
         <v>745</v>
@@ -12016,7 +12028,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q651_580x.jpg</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" hidden="1" spans="1:7">
       <c r="A250" s="2"/>
       <c r="B250" s="1" t="s">
         <v>748</v>
@@ -12040,7 +12052,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q650_580x.jpg</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" hidden="1" spans="1:7">
       <c r="A251" s="2"/>
       <c r="B251" s="1" t="s">
         <v>751</v>
@@ -12064,7 +12076,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q649_580x.jpg</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" hidden="1" spans="1:7">
       <c r="A252" s="2"/>
       <c r="B252" s="1" t="s">
         <v>754</v>
@@ -12088,7 +12100,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q648_580x.jpg</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" hidden="1" spans="1:7">
       <c r="A253" s="2"/>
       <c r="B253" s="1" t="s">
         <v>757</v>
@@ -12112,7 +12124,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q647_580x.jpg</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" hidden="1" spans="1:7">
       <c r="A254" s="2"/>
       <c r="B254" s="1" t="s">
         <v>760</v>
@@ -12136,7 +12148,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q646_580x.jpg</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" hidden="1" spans="1:7">
       <c r="A255" s="2"/>
       <c r="B255" s="1" t="s">
         <v>763</v>
@@ -12160,7 +12172,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q645_580x.jpg</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" hidden="1" spans="1:7">
       <c r="A256" s="2"/>
       <c r="B256" s="1" t="s">
         <v>766</v>
@@ -12184,7 +12196,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.40PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" hidden="1" spans="1:7">
       <c r="A257" s="2"/>
       <c r="B257" s="1" t="s">
         <v>769</v>
@@ -12208,7 +12220,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.43PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" hidden="1" spans="1:7">
       <c r="A258" s="2"/>
       <c r="B258" s="1" t="s">
         <v>772</v>
@@ -12232,7 +12244,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.43PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" hidden="1" spans="1:7">
       <c r="A259" s="2"/>
       <c r="B259" s="1" t="s">
         <v>775</v>
@@ -12256,7 +12268,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.44PM_2__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" hidden="1" spans="1:7">
       <c r="A260" s="2"/>
       <c r="B260" s="1" t="s">
         <v>778</v>
@@ -12280,7 +12292,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.46PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" hidden="1" spans="1:7">
       <c r="A261" s="2"/>
       <c r="B261" s="1" t="s">
         <v>781</v>
@@ -12304,7 +12316,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.46PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" hidden="1" spans="1:7">
       <c r="A262" s="2"/>
       <c r="B262" s="1" t="s">
         <v>784</v>
@@ -12328,7 +12340,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.48PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" hidden="1" spans="1:7">
       <c r="A263" s="2"/>
       <c r="B263" s="1" t="s">
         <v>787</v>
@@ -12352,7 +12364,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.49PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" hidden="1" spans="1:7">
       <c r="A264" s="2"/>
       <c r="B264" s="1" t="s">
         <v>790</v>
@@ -12376,7 +12388,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.27PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" hidden="1" spans="1:7">
       <c r="A265" s="2"/>
       <c r="B265" s="1" t="s">
         <v>793</v>
@@ -12400,7 +12412,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.27PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" hidden="1" spans="1:7">
       <c r="A266" s="2"/>
       <c r="B266" s="1" t="s">
         <v>796</v>
@@ -12424,7 +12436,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.29PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" hidden="1" spans="1:7">
       <c r="A267" s="2"/>
       <c r="B267" s="1" t="s">
         <v>799</v>
@@ -12448,7 +12460,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.29PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" hidden="1" spans="1:7">
       <c r="A268" s="2"/>
       <c r="B268" s="1" t="s">
         <v>802</v>
@@ -12472,7 +12484,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.33PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" hidden="1" spans="1:7">
       <c r="A269" s="2"/>
       <c r="B269" s="1" t="s">
         <v>805</v>
@@ -12496,7 +12508,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.36PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" hidden="1" spans="1:7">
       <c r="A270" s="2"/>
       <c r="B270" s="1" t="s">
         <v>808</v>
@@ -12520,7 +12532,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.37PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" hidden="1" spans="1:7">
       <c r="A271" s="2"/>
       <c r="B271" s="1" t="s">
         <v>811</v>
@@ -12544,7 +12556,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-22at3.41.39PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" hidden="1" spans="1:7">
       <c r="A272" s="2"/>
       <c r="B272" s="1" t="s">
         <v>814</v>
@@ -12568,7 +12580,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.55PM_11zon_1_580x.jpg</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" hidden="1" spans="1:7">
       <c r="A273" s="2"/>
       <c r="B273" s="1" t="s">
         <v>817</v>
@@ -12592,7 +12604,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.46PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" hidden="1" spans="1:7">
       <c r="A274" s="2"/>
       <c r="B274" s="1" t="s">
         <v>820</v>
@@ -12616,7 +12628,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.47PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" hidden="1" spans="1:7">
       <c r="A275" s="2"/>
       <c r="B275" s="1" t="s">
         <v>823</v>
@@ -12640,7 +12652,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.38.17PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" hidden="1" spans="1:7">
       <c r="A276" s="2"/>
       <c r="B276" s="1" t="s">
         <v>826</v>
@@ -12664,7 +12676,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.50PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" hidden="1" spans="1:7">
       <c r="A277" s="2"/>
       <c r="B277" s="1" t="s">
         <v>829</v>
@@ -12688,7 +12700,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.50PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" hidden="1" spans="1:7">
       <c r="A278" s="2"/>
       <c r="B278" s="1" t="s">
         <v>832</v>
@@ -12712,7 +12724,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.50PM_2__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" hidden="1" spans="1:7">
       <c r="A279" s="2"/>
       <c r="B279" s="1" t="s">
         <v>835</v>
@@ -12736,7 +12748,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.49PM_1__11zon_1_580x.jpg</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" hidden="1" spans="1:7">
       <c r="A280" s="2"/>
       <c r="B280" s="1" t="s">
         <v>838</v>
@@ -12760,7 +12772,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.49PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" hidden="1" spans="1:7">
       <c r="A281" s="2"/>
       <c r="B281" s="1" t="s">
         <v>841</v>
@@ -12784,7 +12796,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.49PM_2__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" hidden="1" spans="1:7">
       <c r="A282" s="2"/>
       <c r="B282" s="1" t="s">
         <v>844</v>
@@ -12808,7 +12820,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.48PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" hidden="1" spans="1:7">
       <c r="A283" s="2"/>
       <c r="B283" s="1" t="s">
         <v>847</v>
@@ -12832,7 +12844,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.48PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" hidden="1" spans="1:7">
       <c r="A284" s="2"/>
       <c r="B284" s="1" t="s">
         <v>850</v>
@@ -12856,7 +12868,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.48PM_2__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" hidden="1" spans="1:7">
       <c r="A285" s="2"/>
       <c r="B285" s="1" t="s">
         <v>853</v>
@@ -12880,7 +12892,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.53PM_2__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" hidden="1" spans="1:7">
       <c r="A286" s="2"/>
       <c r="B286" s="1" t="s">
         <v>856</v>
@@ -12904,7 +12916,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.54PM_2__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" hidden="1" spans="1:7">
       <c r="A287" s="2"/>
       <c r="B287" s="1" t="s">
         <v>859</v>
@@ -12928,7 +12940,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.53PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" hidden="1" spans="1:7">
       <c r="A288" s="2"/>
       <c r="B288" s="1" t="s">
         <v>862</v>
@@ -12952,7 +12964,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.52PM_2__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" hidden="1" spans="1:7">
       <c r="A289" s="2"/>
       <c r="B289" s="1" t="s">
         <v>865</v>
@@ -12976,7 +12988,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.53PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" hidden="1" spans="1:7">
       <c r="A290" s="2"/>
       <c r="B290" s="1" t="s">
         <v>868</v>
@@ -13000,7 +13012,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.52PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" hidden="1" spans="1:7">
       <c r="A291" s="2"/>
       <c r="B291" s="1" t="s">
         <v>871</v>
@@ -13024,7 +13036,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.51PM_2__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" hidden="1" spans="1:7">
       <c r="A292" s="2"/>
       <c r="B292" s="1" t="s">
         <v>874</v>
@@ -13048,7 +13060,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.52PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" hidden="1" spans="1:7">
       <c r="A293" s="2"/>
       <c r="B293" s="1" t="s">
         <v>877</v>
@@ -13072,7 +13084,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.51PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" hidden="1" spans="1:7">
       <c r="A294" s="2"/>
       <c r="B294" s="1" t="s">
         <v>880</v>
@@ -13096,7 +13108,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.50PM_3__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" hidden="1" spans="1:7">
       <c r="A295" s="2"/>
       <c r="B295" s="1" t="s">
         <v>883</v>
@@ -13120,7 +13132,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.51PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" hidden="1" spans="1:7">
       <c r="A296" s="2"/>
       <c r="B296" s="1" t="s">
         <v>886</v>
@@ -13144,7 +13156,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.46.27PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" hidden="1" spans="1:7">
       <c r="A297" s="2"/>
       <c r="B297" s="1" t="s">
         <v>889</v>
@@ -13168,7 +13180,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.46.27PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" hidden="1" spans="1:7">
       <c r="A298" s="2"/>
       <c r="B298" s="1" t="s">
         <v>892</v>
@@ -13192,7 +13204,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-25at4.40.54PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" hidden="1" spans="1:7">
       <c r="A299" s="2"/>
       <c r="B299" s="1" t="s">
         <v>895</v>
@@ -13216,7 +13228,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.38PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" hidden="1" spans="1:7">
       <c r="A300" s="2"/>
       <c r="B300" s="1" t="s">
         <v>898</v>
@@ -13240,7 +13252,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.37PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" hidden="1" spans="1:7">
       <c r="A301" s="2"/>
       <c r="B301" s="1" t="s">
         <v>901</v>
@@ -13264,7 +13276,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.39PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" hidden="1" spans="1:7">
       <c r="A302" s="2"/>
       <c r="B302" s="1" t="s">
         <v>904</v>
@@ -13288,7 +13300,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.35PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" hidden="1" spans="1:7">
       <c r="A303" s="2"/>
       <c r="B303" s="1" t="s">
         <v>907</v>
@@ -13312,7 +13324,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.41PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" hidden="1" spans="1:7">
       <c r="A304" s="2"/>
       <c r="B304" s="1" t="s">
         <v>910</v>
@@ -13336,7 +13348,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.36PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" hidden="1" spans="1:7">
       <c r="A305" s="2"/>
       <c r="B305" s="1" t="s">
         <v>913</v>
@@ -13360,7 +13372,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.38PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" hidden="1" spans="1:7">
       <c r="A306" s="2"/>
       <c r="B306" s="1" t="s">
         <v>916</v>
@@ -13384,7 +13396,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.44PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" hidden="1" spans="1:7">
       <c r="A307" s="2"/>
       <c r="B307" s="1" t="s">
         <v>919</v>
@@ -13408,7 +13420,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.45PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" hidden="1" spans="1:7">
       <c r="A308" s="2"/>
       <c r="B308" s="1" t="s">
         <v>922</v>
@@ -13432,7 +13444,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.43PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" hidden="1" spans="1:7">
       <c r="A309" s="2"/>
       <c r="B309" s="1" t="s">
         <v>925</v>
@@ -13456,7 +13468,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.40PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" hidden="1" spans="1:7">
       <c r="A310" s="2"/>
       <c r="B310" s="1" t="s">
         <v>928</v>
@@ -13480,7 +13492,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.42PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" hidden="1" spans="1:7">
       <c r="A311" s="2"/>
       <c r="B311" s="1" t="s">
         <v>931</v>
@@ -13504,7 +13516,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.41PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" hidden="1" spans="1:7">
       <c r="A312" s="2"/>
       <c r="B312" s="1" t="s">
         <v>934</v>
@@ -13528,7 +13540,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.44PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" hidden="1" spans="1:7">
       <c r="A313" s="2"/>
       <c r="B313" s="1" t="s">
         <v>936</v>
@@ -13552,7 +13564,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.19.36PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" hidden="1" spans="1:7">
       <c r="A314" s="2"/>
       <c r="B314" s="1" t="s">
         <v>939</v>
@@ -13576,7 +13588,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.11PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" hidden="1" spans="1:7">
       <c r="A315" s="2"/>
       <c r="B315" s="1" t="s">
         <v>942</v>
@@ -13600,7 +13612,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.10PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" hidden="1" spans="1:7">
       <c r="A316" s="2"/>
       <c r="B316" s="1" t="s">
         <v>945</v>
@@ -13624,7 +13636,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.15PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" hidden="1" spans="1:7">
       <c r="A317" s="2"/>
       <c r="B317" s="1" t="s">
         <v>948</v>
@@ -13648,7 +13660,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.26PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" hidden="1" spans="1:7">
       <c r="A318" s="2"/>
       <c r="B318" s="1" t="s">
         <v>951</v>
@@ -13672,7 +13684,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.21PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" hidden="1" spans="1:7">
       <c r="A319" s="2"/>
       <c r="B319" s="1" t="s">
         <v>954</v>
@@ -13696,7 +13708,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.14PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" hidden="1" spans="1:7">
       <c r="A320" s="2"/>
       <c r="B320" s="1" t="s">
         <v>957</v>
@@ -13720,7 +13732,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.21PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" hidden="1" spans="1:7">
       <c r="A321" s="2"/>
       <c r="B321" s="1" t="s">
         <v>960</v>
@@ -13744,7 +13756,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.20PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" hidden="1" spans="1:7">
       <c r="A322" s="2"/>
       <c r="B322" s="1" t="s">
         <v>963</v>
@@ -13768,7 +13780,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.25PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" hidden="1" spans="1:7">
       <c r="A323" s="2"/>
       <c r="B323" s="1" t="s">
         <v>966</v>
@@ -13792,7 +13804,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.19PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" hidden="1" spans="1:7">
       <c r="A324" s="2"/>
       <c r="B324" s="1" t="s">
         <v>969</v>
@@ -13816,7 +13828,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.20PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" hidden="1" spans="1:7">
       <c r="A325" s="2"/>
       <c r="B325" s="1" t="s">
         <v>972</v>
@@ -13840,7 +13852,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.22PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" hidden="1" spans="1:7">
       <c r="A326" s="2"/>
       <c r="B326" s="1" t="s">
         <v>975</v>
@@ -13864,7 +13876,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.23PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" hidden="1" spans="1:7">
       <c r="A327" s="2"/>
       <c r="B327" s="1" t="s">
         <v>978</v>
@@ -13888,7 +13900,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.18PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" hidden="1" spans="1:7">
       <c r="A328" s="2"/>
       <c r="B328" s="1" t="s">
         <v>981</v>
@@ -13912,7 +13924,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.17PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" hidden="1" spans="1:7">
       <c r="A329" s="2"/>
       <c r="B329" s="1" t="s">
         <v>984</v>
@@ -13936,7 +13948,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.18PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" hidden="1" spans="1:7">
       <c r="A330" s="2"/>
       <c r="B330" s="1" t="s">
         <v>987</v>
@@ -13960,7 +13972,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.16PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" hidden="1" spans="1:7">
       <c r="A331" s="2"/>
       <c r="B331" s="1" t="s">
         <v>990</v>
@@ -13984,7 +13996,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.16PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" hidden="1" spans="1:7">
       <c r="A332" s="2"/>
       <c r="B332" s="1" t="s">
         <v>993</v>
@@ -14008,7 +14020,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.05PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" hidden="1" spans="1:7">
       <c r="A333" s="2"/>
       <c r="B333" s="1" t="s">
         <v>996</v>
@@ -14032,7 +14044,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.03PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" hidden="1" spans="1:7">
       <c r="A334" s="2"/>
       <c r="B334" s="1" t="s">
         <v>999</v>
@@ -14056,7 +14068,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.08PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" hidden="1" spans="1:7">
       <c r="A335" s="2"/>
       <c r="B335" s="1" t="s">
         <v>1002</v>
@@ -14080,7 +14092,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.06PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" hidden="1" spans="1:7">
       <c r="A336" s="2"/>
       <c r="B336" s="1" t="s">
         <v>1005</v>
@@ -14104,7 +14116,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.12PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" hidden="1" spans="1:7">
       <c r="A337" s="2"/>
       <c r="B337" s="1" t="s">
         <v>1008</v>
@@ -14128,7 +14140,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.14PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" hidden="1" spans="1:7">
       <c r="A338" s="2"/>
       <c r="B338" s="1" t="s">
         <v>1011</v>
@@ -14152,7 +14164,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.13PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" hidden="1" spans="1:7">
       <c r="A339" s="2"/>
       <c r="B339" s="1" t="s">
         <v>1014</v>
@@ -14176,7 +14188,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.26PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" hidden="1" spans="1:7">
       <c r="A340" s="2"/>
       <c r="B340" s="1" t="s">
         <v>1017</v>
@@ -14200,7 +14212,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.25PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" hidden="1" spans="1:7">
       <c r="A341" s="2"/>
       <c r="B341" s="1" t="s">
         <v>1020</v>
@@ -14224,7 +14236,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.24PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" hidden="1" spans="1:7">
       <c r="A342" s="2"/>
       <c r="B342" s="1" t="s">
         <v>1023</v>
@@ -14248,7 +14260,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.24PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" hidden="1" spans="1:7">
       <c r="A343" s="2"/>
       <c r="B343" s="1" t="s">
         <v>1026</v>
@@ -14272,7 +14284,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-26at2.39.04PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" hidden="1" spans="1:7">
       <c r="A344" s="2"/>
       <c r="B344" s="1" t="s">
         <v>1029</v>
@@ -14296,7 +14308,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-555_580x.jpg</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" hidden="1" spans="1:7">
       <c r="A345" s="2"/>
       <c r="B345" s="1" t="s">
         <v>1032</v>
@@ -14320,7 +14332,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-554_580x.jpg</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" hidden="1" spans="1:7">
       <c r="A346" s="2"/>
       <c r="B346" s="1" t="s">
         <v>1035</v>
@@ -14344,7 +14356,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-553_580x.jpg</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" hidden="1" spans="1:7">
       <c r="A347" s="2"/>
       <c r="B347" s="1" t="s">
         <v>1038</v>
@@ -14368,7 +14380,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-552_580x.jpg</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" hidden="1" spans="1:7">
       <c r="A348" s="2"/>
       <c r="B348" s="1" t="s">
         <v>1041</v>
@@ -14392,7 +14404,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-551_580x.jpg</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" hidden="1" spans="1:7">
       <c r="A349" s="2"/>
       <c r="B349" s="1" t="s">
         <v>1044</v>
@@ -14416,7 +14428,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-550_580x.jpg</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" hidden="1" spans="1:7">
       <c r="A350" s="2"/>
       <c r="B350" s="1" t="s">
         <v>1047</v>
@@ -14440,7 +14452,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-549_580x.jpg</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" hidden="1" spans="1:7">
       <c r="A351" s="2"/>
       <c r="B351" s="1" t="s">
         <v>1050</v>
@@ -14464,7 +14476,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-548_580x.jpg</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" hidden="1" spans="1:7">
       <c r="A352" s="2"/>
       <c r="B352" s="1" t="s">
         <v>1053</v>
@@ -14488,7 +14500,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-547_580x.jpg</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" hidden="1" spans="1:7">
       <c r="A353" s="2"/>
       <c r="B353" s="1" t="s">
         <v>1056</v>
@@ -14512,7 +14524,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-546_580x.jpg</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" hidden="1" spans="1:7">
       <c r="A354" s="2"/>
       <c r="B354" s="1" t="s">
         <v>1059</v>
@@ -14536,7 +14548,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-545_580x.jpg</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" hidden="1" spans="1:7">
       <c r="A355" s="2"/>
       <c r="B355" s="1" t="s">
         <v>1062</v>
@@ -14560,7 +14572,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-544_580x.jpg</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" hidden="1" spans="1:7">
       <c r="A356" s="2"/>
       <c r="B356" s="1" t="s">
         <v>1065</v>
@@ -14584,7 +14596,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-543_580x.jpg</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" hidden="1" spans="1:7">
       <c r="A357" s="2"/>
       <c r="B357" s="1" t="s">
         <v>1068</v>
@@ -14608,7 +14620,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-542_580x.jpg</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" hidden="1" spans="1:7">
       <c r="A358" s="2"/>
       <c r="B358" s="1" t="s">
         <v>1071</v>
@@ -14632,7 +14644,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-541_580x.jpg</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" hidden="1" spans="1:7">
       <c r="A359" s="2"/>
       <c r="B359" s="1" t="s">
         <v>1074</v>
@@ -14656,7 +14668,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-540_580x.jpg</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" hidden="1" spans="1:7">
       <c r="A360" s="2"/>
       <c r="B360" s="1" t="s">
         <v>1077</v>
@@ -14680,7 +14692,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-539_580x.jpg</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" hidden="1" spans="1:7">
       <c r="A361" s="2"/>
       <c r="B361" s="1" t="s">
         <v>1080</v>
@@ -14704,7 +14716,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-538_580x.jpg</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" hidden="1" spans="1:7">
       <c r="A362" s="2"/>
       <c r="B362" s="1" t="s">
         <v>1083</v>
@@ -14728,7 +14740,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-537_580x.jpg</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" hidden="1" spans="1:7">
       <c r="A363" s="2"/>
       <c r="B363" s="1" t="s">
         <v>1086</v>
@@ -14752,7 +14764,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-536_580x.jpg</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" hidden="1" spans="1:7">
       <c r="A364" s="2"/>
       <c r="B364" s="1" t="s">
         <v>1088</v>
@@ -14776,7 +14788,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-535_580x.jpg</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" hidden="1" spans="1:7">
       <c r="A365" s="2"/>
       <c r="B365" s="1" t="s">
         <v>1091</v>
@@ -14800,7 +14812,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-534_580x.jpg</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" hidden="1" spans="1:7">
       <c r="A366" s="2"/>
       <c r="B366" s="1" t="s">
         <v>1094</v>
@@ -14824,7 +14836,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~QUSE-533-transformed_a6ea1a67-00a8-47b9-85b1-3e60d5de27ba_580x.jpg</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" hidden="1" spans="1:7">
       <c r="A367" s="2"/>
       <c r="B367" s="1" t="s">
         <v>1097</v>
@@ -14848,7 +14860,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-532_580x.jpg</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" hidden="1" spans="1:7">
       <c r="A368" s="2"/>
       <c r="B368" s="1" t="s">
         <v>1100</v>
@@ -14872,7 +14884,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-531_580x.jpg</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" hidden="1" spans="1:7">
       <c r="A369" s="2"/>
       <c r="B369" s="1" t="s">
         <v>1103</v>
@@ -14896,7 +14908,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~QUSE-530-transformed_580x.jpg</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" hidden="1" spans="1:7">
       <c r="A370" s="2"/>
       <c r="B370" s="1" t="s">
         <v>1106</v>
@@ -14920,7 +14932,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~QUSE-514-transformed_2_580x.jpg</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" hidden="1" spans="1:7">
       <c r="A371" s="2"/>
       <c r="B371" s="1" t="s">
         <v>1109</v>
@@ -14944,7 +14956,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-528_580x.jpg</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" hidden="1" spans="1:7">
       <c r="A372" s="2"/>
       <c r="B372" s="1" t="s">
         <v>1112</v>
@@ -14968,7 +14980,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-527_580x.jpg</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" hidden="1" spans="1:7">
       <c r="A373" s="2"/>
       <c r="B373" s="1" t="s">
         <v>1115</v>
@@ -14992,7 +15004,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-526_580x.jpg</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" hidden="1" spans="1:7">
       <c r="A374" s="2"/>
       <c r="B374" s="1" t="s">
         <v>1118</v>
@@ -15016,7 +15028,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-525_580x.jpg</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" hidden="1" spans="1:7">
       <c r="A375" s="2"/>
       <c r="B375" s="1" t="s">
         <v>1121</v>
@@ -15040,7 +15052,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-524_580x.jpg</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" hidden="1" spans="1:7">
       <c r="A376" s="2"/>
       <c r="B376" s="1" t="s">
         <v>1124</v>
@@ -15064,7 +15076,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-523_580x.jpg</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" hidden="1" spans="1:7">
       <c r="A377" s="2"/>
       <c r="B377" s="1" t="s">
         <v>1127</v>
@@ -15088,7 +15100,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-522_580x.jpg</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" hidden="1" spans="1:7">
       <c r="A378" s="2"/>
       <c r="B378" s="1" t="s">
         <v>1130</v>
@@ -15112,7 +15124,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Qsnapedit_1690434545268_580x.jpg</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" hidden="1" spans="1:7">
       <c r="A379" s="2"/>
       <c r="B379" s="1" t="s">
         <v>1133</v>
@@ -15136,7 +15148,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-520_580x.jpg</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" hidden="1" spans="1:7">
       <c r="A380" s="2"/>
       <c r="B380" s="1" t="s">
         <v>1136</v>
@@ -15160,7 +15172,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-519_580x.jpg</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" hidden="1" spans="1:7">
       <c r="A381" s="2"/>
       <c r="B381" s="1" t="s">
         <v>1139</v>
@@ -15184,7 +15196,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-518_580x.jpg</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" hidden="1" spans="1:7">
       <c r="A382" s="2"/>
       <c r="B382" s="1" t="s">
         <v>1142</v>
@@ -15208,7 +15220,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-517_580x.jpg</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" hidden="1" spans="1:7">
       <c r="A383" s="2"/>
       <c r="B383" s="1" t="s">
         <v>1145</v>
@@ -15232,7 +15244,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-516_580x.jpg</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" hidden="1" spans="1:7">
       <c r="A384" s="2"/>
       <c r="B384" s="1" t="s">
         <v>1148</v>
@@ -15256,7 +15268,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-515_580x.jpg</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" hidden="1" spans="1:7">
       <c r="A385" s="2"/>
       <c r="B385" s="1" t="s">
         <v>1151</v>
@@ -15280,7 +15292,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~QUSE-514-transformed_1_580x.jpg</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" hidden="1" spans="1:7">
       <c r="A386" s="2"/>
       <c r="B386" s="1" t="s">
         <v>1154</v>
@@ -15304,7 +15316,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-513_580x.jpg</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" hidden="1" spans="1:7">
       <c r="A387" s="2"/>
       <c r="B387" s="1" t="s">
         <v>1157</v>
@@ -15328,7 +15340,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-512_580x.jpg</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" hidden="1" spans="1:7">
       <c r="A388" s="2"/>
       <c r="B388" s="1" t="s">
         <v>1160</v>
@@ -15352,7 +15364,7 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-511_580x.jpg</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" hidden="1" spans="1:7">
       <c r="A389" s="2"/>
       <c r="B389" s="1" t="s">
         <v>1163</v>
@@ -15395,25 +15407,24 @@
         <f t="shared" si="16"/>
         <v>73</v>
       </c>
-      <c r="G390" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-509_580x.jpg</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7">
+      <c r="G390" s="2" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="391" hidden="1" spans="1:7">
       <c r="A391" s="2"/>
       <c r="B391" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D391" s="1" t="str">
         <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="F391" s="4">
         <f t="shared" ref="F391:F454" si="19">FIND("?",E391)</f>
@@ -15424,20 +15435,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-508_580x.jpg</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" hidden="1" spans="1:7">
       <c r="A392" s="2"/>
       <c r="B392" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D392" s="1" t="str">
         <f t="shared" si="18"/>
         <v>உ</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F392" s="4">
         <f t="shared" si="19"/>
@@ -15448,20 +15459,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-507_9a8631c8-0ebd-48d5-8336-da449b663439_580x.jpg</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" hidden="1" spans="1:7">
       <c r="A393" s="2"/>
       <c r="B393" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D393" s="1" t="str">
         <f t="shared" si="18"/>
         <v>P</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="F393" s="4">
         <f t="shared" si="19"/>
@@ -15472,20 +15483,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00506_580x.jpg</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" hidden="1" spans="1:7">
       <c r="A394" s="2"/>
       <c r="B394" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D394" s="1" t="str">
         <f t="shared" si="18"/>
         <v>I</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="F394" s="4">
         <f t="shared" si="19"/>
@@ -15496,20 +15507,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00505_580x.jpg</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" hidden="1" spans="1:7">
       <c r="A395" s="2"/>
       <c r="B395" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D395" s="1" t="str">
         <f t="shared" si="18"/>
         <v>P</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="F395" s="4">
         <f t="shared" si="19"/>
@@ -15520,20 +15531,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00504_580x.jpg</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" hidden="1" spans="1:7">
       <c r="A396" s="2"/>
       <c r="B396" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D396" s="1" t="str">
         <f t="shared" si="18"/>
         <v>V</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="F396" s="4">
         <f t="shared" si="19"/>
@@ -15544,20 +15555,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00503_580x.jpg</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" hidden="1" spans="1:7">
       <c r="A397" s="2"/>
       <c r="B397" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D397" s="1" t="str">
         <f t="shared" si="18"/>
         <v>M</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F397" s="4">
         <f t="shared" si="19"/>
@@ -15568,20 +15579,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00502_580x.jpg</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" hidden="1" spans="1:7">
       <c r="A398" s="2"/>
       <c r="B398" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D398" s="1" t="str">
         <f t="shared" si="18"/>
         <v>B</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="F398" s="4">
         <f t="shared" si="19"/>
@@ -15592,20 +15603,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00501_580x.jpg</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" hidden="1" spans="1:7">
       <c r="A399" s="2"/>
       <c r="B399" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D399" s="1" t="str">
         <f t="shared" si="18"/>
         <v>N</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F399" s="4">
         <f t="shared" si="19"/>
@@ -15616,20 +15627,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00500_580x.jpg</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" hidden="1" spans="1:7">
       <c r="A400" s="2"/>
       <c r="B400" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D400" s="1" t="str">
         <f t="shared" si="18"/>
         <v>V</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F400" s="4">
         <f t="shared" si="19"/>
@@ -15640,20 +15651,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00499_580x.jpg</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" hidden="1" spans="1:7">
       <c r="A401" s="2"/>
       <c r="B401" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D401" s="1" t="str">
         <f t="shared" si="18"/>
         <v>C</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F401" s="4">
         <f t="shared" si="19"/>
@@ -15664,20 +15675,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00498_580x.jpg</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" hidden="1" spans="1:7">
       <c r="A402" s="2"/>
       <c r="B402" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D402" s="1" t="str">
         <f t="shared" si="18"/>
         <v>O</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F402" s="4">
         <f t="shared" si="19"/>
@@ -15688,20 +15699,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00497_580x.jpg</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" hidden="1" spans="1:7">
       <c r="A403" s="2"/>
       <c r="B403" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D403" s="1" t="str">
         <f t="shared" si="18"/>
         <v>N</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="F403" s="4">
         <f t="shared" si="19"/>
@@ -15712,20 +15723,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00496_580x.jpg</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" hidden="1" spans="1:7">
       <c r="A404" s="2"/>
       <c r="B404" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D404" s="1" t="str">
         <f t="shared" si="18"/>
         <v>V</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F404" s="4">
         <f t="shared" si="19"/>
@@ -15736,20 +15747,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00495_580x.jpg</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" hidden="1" spans="1:7">
       <c r="A405" s="2"/>
       <c r="B405" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D405" s="1" t="str">
         <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F405" s="4">
         <f t="shared" si="19"/>
@@ -15760,20 +15771,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00494_580x.jpg</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" hidden="1" spans="1:7">
       <c r="A406" s="2"/>
       <c r="B406" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D406" s="1" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F406" s="4">
         <f t="shared" si="19"/>
@@ -15784,20 +15795,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00493_580x.jpg</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" hidden="1" spans="1:7">
       <c r="A407" s="2"/>
       <c r="B407" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D407" s="1" t="str">
         <f t="shared" si="18"/>
         <v>A</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="F407" s="4">
         <f t="shared" si="19"/>
@@ -15808,20 +15819,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00492_580x.jpg</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" hidden="1" spans="1:7">
       <c r="A408" s="2"/>
       <c r="B408" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D408" s="1" t="str">
         <f t="shared" si="18"/>
         <v>A</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="F408" s="4">
         <f t="shared" si="19"/>
@@ -15832,20 +15843,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00491_580x.jpg</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" hidden="1" spans="1:7">
       <c r="A409" s="2"/>
       <c r="B409" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D409" s="1" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="F409" s="4">
         <f t="shared" si="19"/>
@@ -15856,20 +15867,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00490_580x.jpg</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" hidden="1" spans="1:7">
       <c r="A410" s="2"/>
       <c r="B410" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D410" s="1" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F410" s="4">
         <f t="shared" si="19"/>
@@ -15880,20 +15891,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00489_580x.jpg</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" hidden="1" spans="1:7">
       <c r="A411" s="2"/>
       <c r="B411" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D411" s="1" t="str">
         <f t="shared" si="18"/>
         <v>A</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="F411" s="4">
         <f t="shared" si="19"/>
@@ -15904,20 +15915,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00488_580x.jpg</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" hidden="1" spans="1:7">
       <c r="A412" s="2"/>
       <c r="B412" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D412" s="1" t="str">
         <f t="shared" si="18"/>
         <v>R</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="F412" s="4">
         <f t="shared" si="19"/>
@@ -15928,20 +15939,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00487_580x.jpg</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" hidden="1" spans="1:7">
       <c r="A413" s="2"/>
       <c r="B413" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D413" s="1" t="str">
         <f t="shared" si="18"/>
         <v>W</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F413" s="4">
         <f t="shared" si="19"/>
@@ -15952,20 +15963,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00486_580x.jpg</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" hidden="1" spans="1:7">
       <c r="A414" s="2"/>
       <c r="B414" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D414" s="1" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F414" s="4">
         <f t="shared" si="19"/>
@@ -15976,20 +15987,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00485_580x.jpg</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" hidden="1" spans="1:7">
       <c r="A415" s="2"/>
       <c r="B415" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D415" s="1" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F415" s="4">
         <f t="shared" si="19"/>
@@ -16000,20 +16011,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00484_580x.jpg</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" hidden="1" spans="1:7">
       <c r="A416" s="2"/>
       <c r="B416" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D416" s="1" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F416" s="4">
         <f t="shared" si="19"/>
@@ -16024,20 +16035,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00483_580x.jpg</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" hidden="1" spans="1:7">
       <c r="A417" s="2"/>
       <c r="B417" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D417" s="1" t="str">
         <f t="shared" si="18"/>
         <v>M</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F417" s="4">
         <f t="shared" si="19"/>
@@ -16048,20 +16059,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00482_580x.jpg</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" hidden="1" spans="1:7">
       <c r="A418" s="2"/>
       <c r="B418" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D418" s="1" t="str">
         <f t="shared" si="18"/>
         <v>W</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="F418" s="4">
         <f t="shared" si="19"/>
@@ -16072,20 +16083,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00481_580x.jpg</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" hidden="1" spans="1:7">
       <c r="A419" s="2"/>
       <c r="B419" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D419" s="1" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="F419" s="4">
         <f t="shared" si="19"/>
@@ -16096,20 +16107,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00480_580x.jpg</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" hidden="1" spans="1:7">
       <c r="A420" s="2"/>
       <c r="B420" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D420" s="1" t="str">
         <f t="shared" si="18"/>
         <v>H</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F420" s="4">
         <f t="shared" si="19"/>
@@ -16120,20 +16131,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00479_580x.jpg</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" hidden="1" spans="1:7">
       <c r="A421" s="2"/>
       <c r="B421" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D421" s="1" t="str">
         <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="F421" s="4">
         <f t="shared" si="19"/>
@@ -16144,20 +16155,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00478_580x.jpg</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" hidden="1" spans="1:7">
       <c r="A422" s="2"/>
       <c r="B422" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D422" s="1" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F422" s="4">
         <f t="shared" si="19"/>
@@ -16168,20 +16179,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00477_580x.jpg</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" hidden="1" spans="1:7">
       <c r="A423" s="2"/>
       <c r="B423" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D423" s="1" t="str">
         <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="F423" s="4">
         <f t="shared" si="19"/>
@@ -16192,20 +16203,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00476_580x.jpg</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" hidden="1" spans="1:7">
       <c r="A424" s="2"/>
       <c r="B424" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D424" s="1" t="str">
         <f t="shared" si="18"/>
         <v>D</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F424" s="4">
         <f t="shared" si="19"/>
@@ -16216,20 +16227,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00475_580x.jpg</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" hidden="1" spans="1:7">
       <c r="A425" s="2"/>
       <c r="B425" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D425" s="1" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="F425" s="4">
         <f t="shared" si="19"/>
@@ -16240,20 +16251,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00474_580x.jpg</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" hidden="1" spans="1:7">
       <c r="A426" s="2"/>
       <c r="B426" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D426" s="1" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F426" s="4">
         <f t="shared" si="19"/>
@@ -16264,20 +16275,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-17at2.49.31PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" hidden="1" spans="1:7">
       <c r="A427" s="2"/>
       <c r="B427" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D427" s="1" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F427" s="4">
         <f t="shared" si="19"/>
@@ -16288,20 +16299,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-17at2.49.41PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" hidden="1" spans="1:7">
       <c r="A428" s="2"/>
       <c r="B428" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D428" s="1" t="str">
         <f t="shared" si="18"/>
         <v>P</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="F428" s="4">
         <f t="shared" si="19"/>
@@ -16312,20 +16323,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-17at2.49.28PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" hidden="1" spans="1:7">
       <c r="A429" s="2"/>
       <c r="B429" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D429" s="1" t="str">
         <f t="shared" si="18"/>
         <v>O</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="F429" s="4">
         <f t="shared" si="19"/>
@@ -16336,20 +16347,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-17at2.49.29PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" hidden="1" spans="1:7">
       <c r="A430" s="2"/>
       <c r="B430" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D430" s="1" t="str">
         <f t="shared" si="18"/>
         <v>P</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F430" s="4">
         <f t="shared" si="19"/>
@@ -16360,20 +16371,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-17at2.49.30PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" hidden="1" spans="1:7">
       <c r="A431" s="2"/>
       <c r="B431" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D431" s="1" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="F431" s="4">
         <f t="shared" si="19"/>
@@ -16384,20 +16395,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-17at2.49.45PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" hidden="1" spans="1:7">
       <c r="A432" s="2"/>
       <c r="B432" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D432" s="1" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F432" s="4">
         <f t="shared" si="19"/>
@@ -16408,20 +16419,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-17at2.49.46PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" hidden="1" spans="1:7">
       <c r="A433" s="2"/>
       <c r="B433" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D433" s="1" t="str">
         <f t="shared" si="18"/>
         <v>E</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F433" s="4">
         <f t="shared" si="19"/>
@@ -16432,20 +16443,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-17at2.49.46PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" hidden="1" spans="1:7">
       <c r="A434" s="2"/>
       <c r="B434" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D434" s="1" t="str">
         <f t="shared" si="18"/>
         <v>Y</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F434" s="4">
         <f t="shared" si="19"/>
@@ -16456,20 +16467,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-17at2.49.47PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" hidden="1" spans="1:7">
       <c r="A435" s="2"/>
       <c r="B435" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D435" s="1" t="str">
         <f t="shared" si="18"/>
         <v>O</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="F435" s="4">
         <f t="shared" si="19"/>
@@ -16480,20 +16491,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-17at2.49.50PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" hidden="1" spans="1:7">
       <c r="A436" s="2"/>
       <c r="B436" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D436" s="1" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="F436" s="4">
         <f t="shared" si="19"/>
@@ -16504,20 +16515,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.02.37PM_1_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" hidden="1" spans="1:7">
       <c r="A437" s="2"/>
       <c r="B437" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D437" s="1" t="str">
         <f t="shared" si="18"/>
         <v>F</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="F437" s="4">
         <f t="shared" si="19"/>
@@ -16528,20 +16539,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.33PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" hidden="1" spans="1:7">
       <c r="A438" s="2"/>
       <c r="B438" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D438" s="1" t="str">
         <f t="shared" si="18"/>
         <v>C</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F438" s="4">
         <f t="shared" si="19"/>
@@ -16552,20 +16563,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.31PM_1__11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" hidden="1" spans="1:7">
       <c r="A439" s="2"/>
       <c r="B439" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D439" s="1" t="str">
         <f t="shared" si="18"/>
         <v>N</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="F439" s="4">
         <f t="shared" si="19"/>
@@ -16576,20 +16587,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.30PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" hidden="1" spans="1:7">
       <c r="A440" s="2"/>
       <c r="B440" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D440" s="1" t="str">
         <f t="shared" si="18"/>
         <v>T</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="F440" s="4">
         <f t="shared" si="19"/>
@@ -16600,20 +16611,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.45.23PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" hidden="1" spans="1:7">
       <c r="A441" s="2"/>
       <c r="B441" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D441" s="1" t="str">
         <f t="shared" si="18"/>
         <v>W</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="F441" s="4">
         <f t="shared" si="19"/>
@@ -16624,20 +16635,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.45.21PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" hidden="1" spans="1:7">
       <c r="A442" s="2"/>
       <c r="B442" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D442" s="1" t="str">
         <f t="shared" si="18"/>
         <v>P</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F442" s="4">
         <f t="shared" si="19"/>
@@ -16648,20 +16659,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.45.22PM_1_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" hidden="1" spans="1:7">
       <c r="A443" s="2"/>
       <c r="B443" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D443" s="1" t="str">
         <f t="shared" si="18"/>
         <v>I</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="F443" s="4">
         <f t="shared" si="19"/>
@@ -16672,20 +16683,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.45.22PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" hidden="1" spans="1:7">
       <c r="A444" s="2"/>
       <c r="B444" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D444" s="1" t="str">
         <f t="shared" si="18"/>
         <v>W</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F444" s="4">
         <f t="shared" si="19"/>
@@ -16696,20 +16707,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.47PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" hidden="1" spans="1:7">
       <c r="A445" s="2"/>
       <c r="B445" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D445" s="1" t="str">
         <f t="shared" si="18"/>
         <v>L</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F445" s="4">
         <f t="shared" si="19"/>
@@ -16720,20 +16731,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.44PM_1_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" hidden="1" spans="1:7">
       <c r="A446" s="2"/>
       <c r="B446" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D446" s="1" t="str">
         <f t="shared" si="18"/>
         <v>L</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="F446" s="4">
         <f t="shared" si="19"/>
@@ -16744,20 +16755,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at6.07.53PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" hidden="1" spans="1:7">
       <c r="A447" s="2"/>
       <c r="B447" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D447" s="1" t="str">
         <f t="shared" si="18"/>
         <v>S</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="F447" s="4">
         <f t="shared" si="19"/>
@@ -16768,20 +16779,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.44PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" hidden="1" spans="1:7">
       <c r="A448" s="2"/>
       <c r="B448" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D448" s="1" t="str">
         <f t="shared" si="18"/>
         <v>I</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="F448" s="4">
         <f t="shared" si="19"/>
@@ -16792,20 +16803,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.43PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" hidden="1" spans="1:7">
       <c r="A449" s="2"/>
       <c r="B449" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D449" s="1" t="str">
         <f t="shared" si="18"/>
         <v>G</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="F449" s="4">
         <f t="shared" si="19"/>
@@ -16816,20 +16827,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.42PM_1_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" hidden="1" spans="1:7">
       <c r="A450" s="2"/>
       <c r="B450" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D450" s="1" t="str">
         <f t="shared" ref="D450:D513" si="21">MID(C450,1,1)</f>
         <v>I</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="F450" s="4">
         <f t="shared" si="19"/>
@@ -16840,20 +16851,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.42PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" hidden="1" spans="1:7">
       <c r="A451" s="2"/>
       <c r="B451" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D451" s="1" t="str">
         <f t="shared" si="21"/>
         <v>I</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F451" s="4">
         <f t="shared" si="19"/>
@@ -16864,20 +16875,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.41PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" hidden="1" spans="1:7">
       <c r="A452" s="2"/>
       <c r="B452" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D452" s="1" t="str">
         <f t="shared" si="21"/>
         <v>U</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F452" s="4">
         <f t="shared" si="19"/>
@@ -16888,20 +16899,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.40PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" hidden="1" spans="1:7">
       <c r="A453" s="2"/>
       <c r="B453" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D453" s="1" t="str">
         <f t="shared" si="21"/>
         <v>R</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="F453" s="4">
         <f t="shared" si="19"/>
@@ -16912,20 +16923,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.39PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" hidden="1" spans="1:7">
       <c r="A454" s="2"/>
       <c r="B454" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D454" s="1" t="str">
         <f t="shared" si="21"/>
         <v>I</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="F454" s="4">
         <f t="shared" si="19"/>
@@ -16936,20 +16947,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.37PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" hidden="1" spans="1:7">
       <c r="A455" s="2"/>
       <c r="B455" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D455" s="1" t="str">
         <f t="shared" si="21"/>
         <v>P</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F455" s="4">
         <f t="shared" ref="F455:F518" si="22">FIND("?",E455)</f>
@@ -16960,20 +16971,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.47.35PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" hidden="1" spans="1:7">
       <c r="A456" s="2"/>
       <c r="B456" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D456" s="1" t="str">
         <f t="shared" si="21"/>
         <v>P</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="F456" s="4">
         <f t="shared" si="22"/>
@@ -16984,20 +16995,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.30.53PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" hidden="1" spans="1:7">
       <c r="A457" s="2"/>
       <c r="B457" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D457" s="1" t="str">
         <f t="shared" si="21"/>
         <v>D</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="F457" s="4">
         <f t="shared" si="22"/>
@@ -17008,20 +17019,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.29.06PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" hidden="1" spans="1:7">
       <c r="A458" s="2"/>
       <c r="B458" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D458" s="1" t="str">
         <f t="shared" si="21"/>
         <v>I</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="F458" s="4">
         <f t="shared" si="22"/>
@@ -17032,20 +17043,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.25.46PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" hidden="1" spans="1:7">
       <c r="A459" s="2"/>
       <c r="B459" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D459" s="1" t="str">
         <f t="shared" si="21"/>
         <v>M</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="F459" s="4">
         <f t="shared" si="22"/>
@@ -17056,20 +17067,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.26.41PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" hidden="1" spans="1:7">
       <c r="A460" s="2"/>
       <c r="B460" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D460" s="1" t="str">
         <f t="shared" si="21"/>
         <v>I</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="F460" s="4">
         <f t="shared" si="22"/>
@@ -17080,20 +17091,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.24.24PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" hidden="1" spans="1:7">
       <c r="A461" s="2"/>
       <c r="B461" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D461" s="1" t="str">
         <f t="shared" si="21"/>
         <v>T</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F461" s="4">
         <f t="shared" si="22"/>
@@ -17104,20 +17115,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.02.36PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" hidden="1" spans="1:7">
       <c r="A462" s="2"/>
       <c r="B462" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D462" s="1" t="str">
         <f t="shared" si="21"/>
         <v>R</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="F462" s="4">
         <f t="shared" si="22"/>
@@ -17128,20 +17139,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.02.38PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" hidden="1" spans="1:7">
       <c r="A463" s="2"/>
       <c r="B463" s="1" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D463" s="1" t="str">
         <f t="shared" si="21"/>
         <v>T</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="F463" s="4">
         <f t="shared" si="22"/>
@@ -17152,20 +17163,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.02.35PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" hidden="1" spans="1:7">
       <c r="A464" s="2"/>
       <c r="B464" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D464" s="1" t="str">
         <f t="shared" si="21"/>
         <v>I</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="F464" s="4">
         <f t="shared" si="22"/>
@@ -17176,20 +17187,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.22.19PM_11zon_1_580x.jpg</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" hidden="1" spans="1:7">
       <c r="A465" s="2"/>
       <c r="B465" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D465" s="1" t="str">
         <f t="shared" si="21"/>
         <v>D</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="F465" s="4">
         <f t="shared" si="22"/>
@@ -17200,20 +17211,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.20.56PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" hidden="1" spans="1:7">
       <c r="A466" s="2"/>
       <c r="B466" s="1" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D466" s="1" t="str">
         <f t="shared" si="21"/>
         <v>I</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="F466" s="4">
         <f t="shared" si="22"/>
@@ -17224,20 +17235,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QWhatsAppImage2022-10-15at5.02.37PM_11zon_580x.jpg</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" hidden="1" spans="1:7">
       <c r="A467" s="2"/>
       <c r="B467" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D467" s="1" t="str">
         <f t="shared" si="21"/>
         <v>F</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="F467" s="4">
         <f t="shared" si="22"/>
@@ -17248,20 +17259,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00432_580x.jpg</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" hidden="1" spans="1:7">
       <c r="A468" s="2"/>
       <c r="B468" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D468" s="1" t="str">
         <f t="shared" si="21"/>
         <v>D</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="F468" s="4">
         <f t="shared" si="22"/>
@@ -17272,20 +17283,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00431_580x.jpg</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" hidden="1" spans="1:7">
       <c r="A469" s="2"/>
       <c r="B469" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D469" s="1" t="str">
         <f t="shared" si="21"/>
         <v>P</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="F469" s="4">
         <f t="shared" si="22"/>
@@ -17296,20 +17307,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00430_580x.jpg</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" hidden="1" spans="1:7">
       <c r="A470" s="2"/>
       <c r="B470" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D470" s="1" t="str">
         <f t="shared" si="21"/>
         <v>G</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="F470" s="4">
         <f t="shared" si="22"/>
@@ -17320,20 +17331,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00429_580x.jpg</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" hidden="1" spans="1:7">
       <c r="A471" s="2"/>
       <c r="B471" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D471" s="1" t="str">
         <f t="shared" si="21"/>
         <v>P</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="F471" s="4">
         <f t="shared" si="22"/>
@@ -17344,20 +17355,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00428_580x.jpg</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" hidden="1" spans="1:7">
       <c r="A472" s="2"/>
       <c r="B472" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D472" s="1" t="str">
         <f t="shared" si="21"/>
         <v>K</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="F472" s="4">
         <f t="shared" si="22"/>
@@ -17368,20 +17379,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00427_580x.jpg</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" hidden="1" spans="1:7">
       <c r="A473" s="2"/>
       <c r="B473" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D473" s="1" t="str">
         <f t="shared" si="21"/>
         <v>M</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="F473" s="4">
         <f t="shared" si="22"/>
@@ -17392,20 +17403,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00426_580x.jpg</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" hidden="1" spans="1:7">
       <c r="A474" s="2"/>
       <c r="B474" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D474" s="1" t="str">
         <f t="shared" si="21"/>
         <v>E</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="F474" s="4">
         <f t="shared" si="22"/>
@@ -17416,20 +17427,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00425_580x.jpg</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" hidden="1" spans="1:7">
       <c r="A475" s="2"/>
       <c r="B475" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D475" s="1" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="F475" s="4">
         <f t="shared" si="22"/>
@@ -17440,20 +17451,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00424_580x.jpg</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" hidden="1" spans="1:7">
       <c r="A476" s="2"/>
       <c r="B476" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D476" s="1" t="str">
         <f t="shared" si="21"/>
         <v>S</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="F476" s="4">
         <f t="shared" si="22"/>
@@ -17464,20 +17475,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00423_580x.jpg</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" hidden="1" spans="1:7">
       <c r="A477" s="2"/>
       <c r="B477" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D477" s="1" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="F477" s="4">
         <f t="shared" si="22"/>
@@ -17488,20 +17499,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00422_580x.jpg</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" hidden="1" spans="1:7">
       <c r="A478" s="2"/>
       <c r="B478" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D478" s="1" t="str">
         <f t="shared" si="21"/>
         <v>E</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="F478" s="4">
         <f t="shared" si="22"/>
@@ -17512,20 +17523,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00421_580x.jpg</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" hidden="1" spans="1:7">
       <c r="A479" s="2"/>
       <c r="B479" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D479" s="1" t="str">
         <f t="shared" si="21"/>
         <v>S</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="F479" s="4">
         <f t="shared" si="22"/>
@@ -17536,20 +17547,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00420_580x.jpg</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" hidden="1" spans="1:7">
       <c r="A480" s="2"/>
       <c r="B480" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D480" s="1" t="str">
         <f t="shared" si="21"/>
         <v>I</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="F480" s="4">
         <f t="shared" si="22"/>
@@ -17560,20 +17571,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00419_580x.jpg</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" hidden="1" spans="1:7">
       <c r="A481" s="2"/>
       <c r="B481" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D481" s="1" t="str">
         <f t="shared" si="21"/>
         <v>M</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="F481" s="4">
         <f t="shared" si="22"/>
@@ -17584,20 +17595,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00418_580x.jpg</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" hidden="1" spans="1:7">
       <c r="A482" s="2"/>
       <c r="B482" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D482" s="1" t="str">
         <f t="shared" si="21"/>
         <v>F</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F482" s="4">
         <f t="shared" si="22"/>
@@ -17608,20 +17619,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00417_580x.jpg</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" hidden="1" spans="1:7">
       <c r="A483" s="2"/>
       <c r="B483" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D483" s="1" t="str">
         <f t="shared" si="21"/>
         <v>I</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="F483" s="4">
         <f t="shared" si="22"/>
@@ -17632,20 +17643,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00416_580x.jpg</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" hidden="1" spans="1:7">
       <c r="A484" s="2"/>
       <c r="B484" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D484" s="1" t="str">
         <f t="shared" si="21"/>
         <v>C</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="F484" s="4">
         <f t="shared" si="22"/>
@@ -17656,20 +17667,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-00415_580x.jpg</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" hidden="1" spans="1:7">
       <c r="A485" s="2"/>
       <c r="B485" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D485" s="1" t="str">
         <f t="shared" si="21"/>
         <v>R</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="F485" s="4">
         <f t="shared" si="22"/>
@@ -17680,20 +17691,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q00414_580x.jpg</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" hidden="1" spans="1:7">
       <c r="A486" s="2"/>
       <c r="B486" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D486" s="1" t="str">
         <f t="shared" si="21"/>
         <v>W</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="F486" s="4">
         <f t="shared" si="22"/>
@@ -17704,20 +17715,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q00413_580x.jpg</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" hidden="1" spans="1:7">
       <c r="A487" s="2"/>
       <c r="B487" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D487" s="1" t="str">
         <f t="shared" si="21"/>
         <v>I</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="F487" s="4">
         <f t="shared" si="22"/>
@@ -17728,20 +17739,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~Q00412_580x.jpg</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" hidden="1" spans="1:7">
       <c r="A488" s="2"/>
       <c r="B488" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D488" s="1" t="str">
         <f t="shared" si="21"/>
         <v>B</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F488" s="4">
         <f t="shared" si="22"/>
@@ -17752,20 +17763,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-411_580x.jpg</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" hidden="1" spans="1:7">
       <c r="A489" s="2"/>
       <c r="B489" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D489" s="1" t="str">
         <f t="shared" si="21"/>
         <v>S</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="F489" s="4">
         <f t="shared" si="22"/>
@@ -17776,20 +17787,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-410_580x.jpg</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" hidden="1" spans="1:7">
       <c r="A490" s="2"/>
       <c r="B490" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D490" s="1" t="str">
         <f t="shared" si="21"/>
         <v>S</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="F490" s="4">
         <f t="shared" si="22"/>
@@ -17800,20 +17811,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-409_580x.jpg</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" hidden="1" spans="1:7">
       <c r="A491" s="2"/>
       <c r="B491" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D491" s="1" t="str">
         <f t="shared" si="21"/>
         <v>L</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="F491" s="4">
         <f t="shared" si="22"/>
@@ -17824,20 +17835,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-408_580x.jpg</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" hidden="1" spans="1:7">
       <c r="A492" s="2"/>
       <c r="B492" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D492" s="1" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="F492" s="4">
         <f t="shared" si="22"/>
@@ -17848,20 +17859,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-407_580x.jpg</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" hidden="1" spans="1:7">
       <c r="A493" s="2"/>
       <c r="B493" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D493" s="1" t="str">
         <f t="shared" si="21"/>
         <v>F</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="F493" s="4">
         <f t="shared" si="22"/>
@@ -17872,20 +17883,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-406_580x.jpg</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" hidden="1" spans="1:7">
       <c r="A494" s="2"/>
       <c r="B494" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D494" s="1" t="str">
         <f t="shared" si="21"/>
         <v>F</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="F494" s="4">
         <f t="shared" si="22"/>
@@ -17896,20 +17907,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-405_580x.jpg</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" hidden="1" spans="1:7">
       <c r="A495" s="2"/>
       <c r="B495" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D495" s="1" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="F495" s="4">
         <f t="shared" si="22"/>
@@ -17920,20 +17931,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-404_580x.jpg</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" hidden="1" spans="1:7">
       <c r="A496" s="2"/>
       <c r="B496" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D496" s="1" t="str">
         <f t="shared" si="21"/>
         <v>C</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="F496" s="4">
         <f t="shared" si="22"/>
@@ -17944,20 +17955,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-403_580x.jpg</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" hidden="1" spans="1:7">
       <c r="A497" s="2"/>
       <c r="B497" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D497" s="1" t="str">
         <f t="shared" si="21"/>
         <v>C</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="F497" s="4">
         <f t="shared" si="22"/>
@@ -17968,20 +17979,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-402_580x.jpg</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" hidden="1" spans="1:7">
       <c r="A498" s="2"/>
       <c r="B498" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D498" s="1" t="str">
         <f t="shared" si="21"/>
         <v>C</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="F498" s="4">
         <f t="shared" si="22"/>
@@ -17992,20 +18003,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-401_580x.jpg</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" hidden="1" spans="1:7">
       <c r="A499" s="2"/>
       <c r="B499" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D499" s="1" t="str">
         <f t="shared" si="21"/>
         <v>T</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="F499" s="4">
         <f t="shared" si="22"/>
@@ -18016,20 +18027,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-400_580x.jpg</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" hidden="1" spans="1:7">
       <c r="A500" s="2"/>
       <c r="B500" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D500" s="1" t="str">
         <f t="shared" si="21"/>
         <v>P</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="F500" s="4">
         <f t="shared" si="22"/>
@@ -18040,20 +18051,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-399_580x.jpg</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" hidden="1" spans="1:7">
       <c r="A501" s="2"/>
       <c r="B501" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D501" s="1" t="str">
         <f t="shared" si="21"/>
         <v>R</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="F501" s="4">
         <f t="shared" si="22"/>
@@ -18064,20 +18075,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-398_580x.jpg</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" hidden="1" spans="1:7">
       <c r="A502" s="2"/>
       <c r="B502" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D502" s="1" t="str">
         <f t="shared" si="21"/>
         <v>L</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="F502" s="4">
         <f t="shared" si="22"/>
@@ -18088,20 +18099,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-397_580x.jpg</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" hidden="1" spans="1:7">
       <c r="A503" s="2"/>
       <c r="B503" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D503" s="1" t="str">
         <f t="shared" si="21"/>
         <v>T</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="F503" s="4">
         <f t="shared" si="22"/>
@@ -18112,20 +18123,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-396_580x.jpg</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" hidden="1" spans="1:7">
       <c r="A504" s="2"/>
       <c r="B504" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D504" s="1" t="str">
         <f t="shared" si="21"/>
         <v>B</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="F504" s="4">
         <f t="shared" si="22"/>
@@ -18136,20 +18147,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-395_580x.jpg</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" hidden="1" spans="1:7">
       <c r="A505" s="2"/>
       <c r="B505" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D505" s="1" t="str">
         <f t="shared" si="21"/>
         <v>P</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="F505" s="4">
         <f t="shared" si="22"/>
@@ -18160,20 +18171,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-394_580x.jpg</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" hidden="1" spans="1:7">
       <c r="A506" s="2"/>
       <c r="B506" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D506" s="1" t="str">
         <f t="shared" si="21"/>
         <v>S</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="F506" s="4">
         <f t="shared" si="22"/>
@@ -18184,20 +18195,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-393_580x.jpg</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" hidden="1" spans="1:7">
       <c r="A507" s="2"/>
       <c r="B507" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D507" s="1" t="str">
         <f t="shared" si="21"/>
         <v>W</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="F507" s="4">
         <f t="shared" si="22"/>
@@ -18208,20 +18219,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-392_580x.jpg</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" hidden="1" spans="1:7">
       <c r="A508" s="2"/>
       <c r="B508" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D508" s="1" t="str">
         <f t="shared" si="21"/>
         <v>T</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="F508" s="4">
         <f t="shared" si="22"/>
@@ -18232,20 +18243,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-391_580x.jpg</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" hidden="1" spans="1:7">
       <c r="A509" s="2"/>
       <c r="B509" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D509" s="1" t="str">
         <f t="shared" si="21"/>
         <v>W</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="F509" s="4">
         <f t="shared" si="22"/>
@@ -18256,20 +18267,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-390_580x.jpg</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" hidden="1" spans="1:7">
       <c r="A510" s="2"/>
       <c r="B510" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D510" s="1" t="str">
         <f t="shared" si="21"/>
         <v>S</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="F510" s="4">
         <f t="shared" si="22"/>
@@ -18280,20 +18291,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-389_580x.jpg</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" hidden="1" spans="1:7">
       <c r="A511" s="2"/>
       <c r="B511" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D511" s="1" t="str">
         <f t="shared" si="21"/>
         <v>R</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F511" s="4">
         <f t="shared" si="22"/>
@@ -18304,20 +18315,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-388_580x.jpg</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" hidden="1" spans="1:7">
       <c r="A512" s="2"/>
       <c r="B512" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D512" s="1" t="str">
         <f t="shared" si="21"/>
         <v>W</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="F512" s="4">
         <f t="shared" si="22"/>
@@ -18328,20 +18339,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-387_580x.jpg</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" hidden="1" spans="1:7">
       <c r="A513" s="2"/>
       <c r="B513" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D513" s="1" t="str">
         <f t="shared" si="21"/>
         <v>E</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F513" s="4">
         <f t="shared" si="22"/>
@@ -18352,20 +18363,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-386_580x.jpg</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" hidden="1" spans="1:7">
       <c r="A514" s="2"/>
       <c r="B514" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D514" s="1" t="str">
         <f t="shared" ref="D514:D562" si="24">MID(C514,1,1)</f>
         <v>T</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="F514" s="4">
         <f t="shared" si="22"/>
@@ -18376,20 +18387,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-385_580x.jpg</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" hidden="1" spans="1:7">
       <c r="A515" s="2"/>
       <c r="B515" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D515" s="1" t="str">
         <f t="shared" si="24"/>
         <v>N</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="F515" s="4">
         <f t="shared" si="22"/>
@@ -18400,20 +18411,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-384_580x.jpg</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" hidden="1" spans="1:7">
       <c r="A516" s="2"/>
       <c r="B516" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D516" s="1" t="str">
         <f t="shared" si="24"/>
         <v>W</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="F516" s="4">
         <f t="shared" si="22"/>
@@ -18424,20 +18435,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-383_580x.jpg</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" hidden="1" spans="1:7">
       <c r="A517" s="2"/>
       <c r="B517" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D517" s="1" t="str">
         <f t="shared" si="24"/>
         <v>T</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="F517" s="4">
         <f t="shared" si="22"/>
@@ -18448,20 +18459,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-382_580x.jpg</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" hidden="1" spans="1:7">
       <c r="A518" s="2"/>
       <c r="B518" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D518" s="1" t="str">
         <f t="shared" si="24"/>
         <v>P</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F518" s="4">
         <f t="shared" si="22"/>
@@ -18472,20 +18483,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-381_580x.jpg</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" hidden="1" spans="1:7">
       <c r="A519" s="2"/>
       <c r="B519" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D519" s="1" t="str">
         <f t="shared" si="24"/>
         <v>B</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="F519" s="4">
         <f t="shared" ref="F519:F562" si="25">FIND("?",E519)</f>
@@ -18496,20 +18507,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-380_580x.jpg</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" hidden="1" spans="1:7">
       <c r="A520" s="2"/>
       <c r="B520" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D520" s="1" t="str">
         <f t="shared" si="24"/>
         <v>A</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="F520" s="4">
         <f t="shared" si="25"/>
@@ -18520,20 +18531,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-379_580x.jpg</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" hidden="1" spans="1:7">
       <c r="A521" s="2"/>
       <c r="B521" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D521" s="1" t="str">
         <f t="shared" si="24"/>
         <v>E</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="F521" s="4">
         <f t="shared" si="25"/>
@@ -18544,20 +18555,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-378_580x.jpg</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" hidden="1" spans="1:7">
       <c r="A522" s="2"/>
       <c r="B522" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D522" s="1" t="str">
         <f t="shared" si="24"/>
         <v>M</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="F522" s="4">
         <f t="shared" si="25"/>
@@ -18568,20 +18579,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-377_580x.jpg</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" hidden="1" spans="1:7">
       <c r="A523" s="2"/>
       <c r="B523" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D523" s="1" t="str">
         <f t="shared" si="24"/>
         <v>F</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="F523" s="4">
         <f t="shared" si="25"/>
@@ -18592,20 +18603,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-376_580x.jpg</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" hidden="1" spans="1:7">
       <c r="A524" s="2"/>
       <c r="B524" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D524" s="1" t="str">
         <f t="shared" si="24"/>
         <v>H</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="F524" s="4">
         <f t="shared" si="25"/>
@@ -18616,20 +18627,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-374_580x.jpg</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" hidden="1" spans="1:7">
       <c r="A525" s="2"/>
       <c r="B525" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="D525" s="1" t="str">
         <f t="shared" si="24"/>
         <v>H</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="F525" s="4">
         <f t="shared" si="25"/>
@@ -18640,20 +18651,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-373_580x.jpg</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" hidden="1" spans="1:7">
       <c r="A526" s="2"/>
       <c r="B526" s="1" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D526" s="1" t="str">
         <f t="shared" si="24"/>
         <v>M</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="F526" s="4">
         <f t="shared" si="25"/>
@@ -18664,20 +18675,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-371_580x.jpg</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" hidden="1" spans="1:7">
       <c r="A527" s="2"/>
       <c r="B527" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="D527" s="1" t="str">
         <f t="shared" si="24"/>
         <v>V</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="F527" s="4">
         <f t="shared" si="25"/>
@@ -18688,20 +18699,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-370_580x.jpg</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" hidden="1" spans="1:7">
       <c r="A528" s="2"/>
       <c r="B528" s="1" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D528" s="1" t="str">
         <f t="shared" si="24"/>
         <v>S</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="F528" s="4">
         <f t="shared" si="25"/>
@@ -18712,20 +18723,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-369_580x.jpg</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" hidden="1" spans="1:7">
       <c r="A529" s="2"/>
       <c r="B529" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D529" s="1" t="str">
         <f t="shared" si="24"/>
         <v>S</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="F529" s="4">
         <f t="shared" si="25"/>
@@ -18736,20 +18747,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-368_580x.jpg</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" hidden="1" spans="1:7">
       <c r="A530" s="2"/>
       <c r="B530" s="1" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D530" s="1" t="str">
         <f t="shared" si="24"/>
         <v>P</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="F530" s="4">
         <f t="shared" si="25"/>
@@ -18760,20 +18771,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-367_580x.jpg</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" hidden="1" spans="1:7">
       <c r="A531" s="2"/>
       <c r="B531" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D531" s="1" t="str">
         <f t="shared" si="24"/>
         <v>T</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="F531" s="4">
         <f t="shared" si="25"/>
@@ -18784,20 +18795,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-366_580x.jpg</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" hidden="1" spans="1:7">
       <c r="A532" s="2"/>
       <c r="B532" s="1" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="D532" s="1" t="str">
         <f t="shared" si="24"/>
         <v>U</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="F532" s="4">
         <f t="shared" si="25"/>
@@ -18808,20 +18819,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-365_580x.jpg</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" hidden="1" spans="1:7">
       <c r="A533" s="2"/>
       <c r="B533" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D533" s="1" t="str">
         <f t="shared" si="24"/>
         <v>M</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F533" s="4">
         <f t="shared" si="25"/>
@@ -18832,20 +18843,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-364_580x.jpg</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" hidden="1" spans="1:7">
       <c r="A534" s="2"/>
       <c r="B534" s="1" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D534" s="1" t="str">
         <f t="shared" si="24"/>
         <v>U</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="F534" s="4">
         <f t="shared" si="25"/>
@@ -18856,10 +18867,10 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-363_580x.jpg</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" hidden="1" spans="1:7">
       <c r="A535" s="2"/>
       <c r="B535" s="1" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>749</v>
@@ -18869,7 +18880,7 @@
         <v>S</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="F535" s="4">
         <f t="shared" si="25"/>
@@ -18880,10 +18891,10 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-362_580x.jpg</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" hidden="1" spans="1:7">
       <c r="A536" s="2"/>
       <c r="B536" s="1" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>764</v>
@@ -18893,7 +18904,7 @@
         <v>D</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="F536" s="4">
         <f t="shared" si="25"/>
@@ -18904,10 +18915,10 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-361_580x.jpg</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" hidden="1" spans="1:7">
       <c r="A537" s="2"/>
       <c r="B537" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>455</v>
@@ -18917,7 +18928,7 @@
         <v>C</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="F537" s="4">
         <f t="shared" si="25"/>
@@ -18928,20 +18939,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-360_580x.jpg</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" hidden="1" spans="1:7">
       <c r="A538" s="2"/>
       <c r="B538" s="1" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D538" s="1" t="str">
         <f t="shared" si="24"/>
         <v>S</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="F538" s="4">
         <f t="shared" si="25"/>
@@ -18952,20 +18963,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-359_580x.jpg</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" hidden="1" spans="1:7">
       <c r="A539" s="2"/>
       <c r="B539" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D539" s="1" t="str">
         <f t="shared" si="24"/>
         <v>E</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="F539" s="4">
         <f t="shared" si="25"/>
@@ -18976,20 +18987,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-358_580x.jpg</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" hidden="1" spans="1:7">
       <c r="A540" s="2"/>
       <c r="B540" s="1" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="D540" s="1" t="str">
         <f t="shared" si="24"/>
         <v>I</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="F540" s="4">
         <f t="shared" si="25"/>
@@ -19000,20 +19011,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-357_580x.jpg</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" hidden="1" spans="1:7">
       <c r="A541" s="2"/>
       <c r="B541" s="1" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D541" s="1" t="str">
         <f t="shared" si="24"/>
         <v>S</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="F541" s="4">
         <f t="shared" si="25"/>
@@ -19024,20 +19035,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-356_580x.jpg</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" hidden="1" spans="1:7">
       <c r="A542" s="2"/>
       <c r="B542" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D542" s="1" t="str">
         <f t="shared" si="24"/>
         <v>R</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="F542" s="4">
         <f t="shared" si="25"/>
@@ -19048,10 +19059,10 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-355_580x.jpg</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" hidden="1" spans="1:7">
       <c r="A543" s="2"/>
       <c r="B543" s="1" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>449</v>
@@ -19061,7 +19072,7 @@
         <v>G</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="F543" s="4">
         <f t="shared" si="25"/>
@@ -19072,20 +19083,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-354_580x.jpg</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" hidden="1" spans="1:7">
       <c r="A544" s="2"/>
       <c r="B544" s="1" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D544" s="1" t="str">
         <f t="shared" si="24"/>
         <v>F</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="F544" s="4">
         <f t="shared" si="25"/>
@@ -19096,20 +19107,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-353_580x.jpg</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" hidden="1" spans="1:7">
       <c r="A545" s="2"/>
       <c r="B545" s="1" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="D545" s="1" t="str">
         <f t="shared" si="24"/>
         <v>S</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="F545" s="4">
         <f t="shared" si="25"/>
@@ -19120,20 +19131,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-352_580x.jpg</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" hidden="1" spans="1:7">
       <c r="A546" s="2"/>
       <c r="B546" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D546" s="1" t="str">
         <f t="shared" si="24"/>
         <v>G</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F546" s="4">
         <f t="shared" si="25"/>
@@ -19144,20 +19155,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QproductsQ~~~QUSE-351_580x.jpg</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" hidden="1" spans="1:7">
       <c r="A547" s="2"/>
       <c r="B547" s="1" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="D547" s="1" t="str">
         <f t="shared" si="24"/>
         <v>V</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="F547" s="4">
         <f t="shared" si="25"/>
@@ -19168,20 +19179,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q135_55410fa0-69da-45a1-9cff-e07976915d55_580x.jpg</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" hidden="1" spans="1:7">
       <c r="A548" s="2"/>
       <c r="B548" s="1" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D548" s="1" t="str">
         <f t="shared" si="24"/>
         <v>T</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="F548" s="4">
         <f t="shared" si="25"/>
@@ -19192,20 +19203,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q134_5bf8ff7e-7a91-4a97-9a97-f7c81127c38b_580x.jpg</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" hidden="1" spans="1:7">
       <c r="A549" s="2"/>
       <c r="B549" s="1" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D549" s="1" t="str">
         <f t="shared" si="24"/>
         <v>T</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="F549" s="4">
         <f t="shared" si="25"/>
@@ -19216,20 +19227,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q133_64e236e9-97a0-4d6f-9d36-aeafcc61808e_580x.jpg</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" hidden="1" spans="1:7">
       <c r="A550" s="2"/>
       <c r="B550" s="1" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="D550" s="1" t="str">
         <f t="shared" si="24"/>
         <v>S</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="F550" s="4">
         <f t="shared" si="25"/>
@@ -19240,20 +19251,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q132_f87b4cd0-d81f-4314-a23e-3c2fabcb0b62_580x.jpg</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" hidden="1" spans="1:7">
       <c r="A551" s="2"/>
       <c r="B551" s="1" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="D551" s="1" t="str">
         <f t="shared" si="24"/>
         <v>P</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="F551" s="4">
         <f t="shared" si="25"/>
@@ -19264,20 +19275,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q131_c6873236-f41a-434d-9c18-7e9d6302b405_580x.jpg</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" hidden="1" spans="1:7">
       <c r="A552" s="2"/>
       <c r="B552" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="D552" s="1" t="str">
         <f t="shared" si="24"/>
         <v>P</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="F552" s="4">
         <f t="shared" si="25"/>
@@ -19288,20 +19299,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q130_cf210dfd-4c8b-4111-8349-d5eb9ab156dc_580x.jpg</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" hidden="1" spans="1:7">
       <c r="A553" s="2"/>
       <c r="B553" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="D553" s="1" t="str">
         <f t="shared" si="24"/>
         <v>M</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="F553" s="4">
         <f t="shared" si="25"/>
@@ -19312,20 +19323,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q129_b07fe262-4fab-46c9-a097-034aa5dd37c8_580x.jpg</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" hidden="1" spans="1:7">
       <c r="A554" s="2"/>
       <c r="B554" s="1" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="D554" s="1" t="str">
         <f t="shared" si="24"/>
         <v>M</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="F554" s="4">
         <f t="shared" si="25"/>
@@ -19336,20 +19347,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q128_30b4c3a6-2946-4866-ae20-b687e33e7a3c_580x.jpg</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" hidden="1" spans="1:7">
       <c r="A555" s="2"/>
       <c r="B555" s="1" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D555" s="1" t="str">
         <f t="shared" si="24"/>
         <v>L</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="F555" s="4">
         <f t="shared" si="25"/>
@@ -19360,20 +19371,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q127_79a8d8b0-472b-41b5-bd0a-bd9972c40995_580x.jpg</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" hidden="1" spans="1:7">
       <c r="A556" s="2"/>
       <c r="B556" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D556" s="1" t="str">
         <f t="shared" si="24"/>
         <v>F</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="F556" s="4">
         <f t="shared" si="25"/>
@@ -19384,20 +19395,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q125_bf2479f5-45a7-429c-b9e3-7199260ef682_580x.jpg</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" hidden="1" spans="1:7">
       <c r="A557" s="2"/>
       <c r="B557" s="1" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D557" s="1" t="str">
         <f t="shared" si="24"/>
         <v>E</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="F557" s="4">
         <f t="shared" si="25"/>
@@ -19408,20 +19419,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q124_857d95d0-54f2-45e8-ae08-67385fa0144b_580x.jpg</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" hidden="1" spans="1:7">
       <c r="A558" s="2"/>
       <c r="B558" s="1" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="D558" s="1" t="str">
         <f t="shared" si="24"/>
         <v>C</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="F558" s="4">
         <f t="shared" si="25"/>
@@ -19432,20 +19443,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q123_78590968-961c-4583-88d4-d5b7f3c72f16_580x.jpg</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" hidden="1" spans="1:7">
       <c r="A559" s="2"/>
       <c r="B559" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="D559" s="1" t="str">
         <f t="shared" si="24"/>
         <v>T</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="F559" s="4">
         <f t="shared" si="25"/>
@@ -19456,20 +19467,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q122_dafa6db4-8cd3-4fdc-81c0-6c5ad2c1b3cf_580x.jpg</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" hidden="1" spans="1:7">
       <c r="A560" s="2"/>
       <c r="B560" s="1" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="D560" s="1" t="str">
         <f t="shared" si="24"/>
         <v>C</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F560" s="4">
         <f t="shared" si="25"/>
@@ -19480,20 +19491,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q121_730cdb2c-b131-4e6a-b4e0-613134355dbd_580x.jpg</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" hidden="1" spans="1:7">
       <c r="A561" s="2"/>
       <c r="B561" s="1" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="D561" s="1" t="str">
         <f t="shared" si="24"/>
         <v>B</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="F561" s="4">
         <f t="shared" si="25"/>
@@ -19504,20 +19515,20 @@
         <v>Q~~~QQ~~~Qclickere.inQ~~~QcdnQ~~~QshopQ~~~QfilesQ~~~Q120_79fd8f8f-f5ac-4ea7-83fc-4fb0a4f51949_580x.jpg</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" hidden="1" spans="1:7">
       <c r="A562" s="2"/>
       <c r="B562" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="D562" s="1" t="str">
         <f t="shared" si="24"/>
         <v>U</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="F562" s="4">
         <f t="shared" si="25"/>
@@ -19529,6 +19540,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G562">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="'"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
